--- a/raw_data/20200818_saline/20200818_Sensor3_Test_85.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_85.xlsx
@@ -1,2003 +1,2419 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7794CF3-8EA7-4231-AC83-FCD1DC414B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>76157.993782</v>
+        <v>76157.993782000005</v>
       </c>
       <c r="B2" s="1">
-        <v>21.154998</v>
+        <v>21.154997999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>1149.190000</v>
+        <v>1149.19</v>
       </c>
       <c r="D2" s="1">
-        <v>-255.291000</v>
+        <v>-255.291</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>76168.409273</v>
+        <v>76168.409272999997</v>
       </c>
       <c r="G2" s="1">
-        <v>21.157891</v>
+        <v>21.157890999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1170.820000</v>
+        <v>1170.82</v>
       </c>
       <c r="I2" s="1">
-        <v>-214.899000</v>
+        <v>-214.899</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>76179.215607</v>
+        <v>76179.215607000006</v>
       </c>
       <c r="L2" s="1">
-        <v>21.160893</v>
+        <v>21.160893000000002</v>
       </c>
       <c r="M2" s="1">
-        <v>1199.920000</v>
+        <v>1199.92</v>
       </c>
       <c r="N2" s="1">
-        <v>-150.565000</v>
+        <v>-150.565</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>76189.726825</v>
+        <v>76189.726825000005</v>
       </c>
       <c r="Q2" s="1">
-        <v>21.163813</v>
+        <v>21.163813000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1207.860000</v>
+        <v>1207.8599999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-129.059000</v>
+        <v>-129.059</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>76200.986010</v>
+        <v>76200.986009999993</v>
       </c>
       <c r="V2" s="1">
-        <v>21.166941</v>
+        <v>21.166941000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1215.570000</v>
+        <v>1215.57</v>
       </c>
       <c r="X2" s="1">
-        <v>-108.460000</v>
+        <v>-108.46</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>76211.191197</v>
+        <v>76211.191196999993</v>
       </c>
       <c r="AA2" s="1">
-        <v>21.169775</v>
+        <v>21.169775000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1223.560000</v>
+        <v>1223.56</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.398400</v>
+        <v>-91.398399999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>76221.477262</v>
       </c>
       <c r="AF2" s="1">
-        <v>21.172633</v>
+        <v>21.172633000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1228.510000</v>
+        <v>1228.51</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.865000</v>
+        <v>-86.864999999999995</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>76231.213732</v>
+        <v>76231.213732000004</v>
       </c>
       <c r="AK2" s="1">
-        <v>21.175337</v>
+        <v>21.175336999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1235.870000</v>
+        <v>1235.8699999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-90.100100</v>
+        <v>-90.100099999999998</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>76241.476421</v>
+        <v>76241.476420999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>21.178188</v>
+        <v>21.178187999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1243.990000</v>
+        <v>1243.99</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.914000</v>
+        <v>-101.914</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>76252.465318</v>
+        <v>76252.465318000002</v>
       </c>
       <c r="AU2" s="1">
-        <v>21.181240</v>
+        <v>21.181239999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1254.090000</v>
+        <v>1254.0899999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.135000</v>
+        <v>-121.13500000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>76263.569223</v>
+        <v>76263.569222999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>21.184325</v>
+        <v>21.184325000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1262.620000</v>
+        <v>1262.6199999999999</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.557000</v>
+        <v>-138.55699999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>76274.546222</v>
+        <v>76274.546222000004</v>
       </c>
       <c r="BE2" s="1">
-        <v>21.187374</v>
+        <v>21.187373999999998</v>
       </c>
       <c r="BF2" s="1">
-        <v>1303.100000</v>
+        <v>1303.0999999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-220.149000</v>
+        <v>-220.149</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>76285.288538</v>
+        <v>76285.288537999993</v>
       </c>
       <c r="BJ2" s="1">
         <v>21.190358</v>
       </c>
       <c r="BK2" s="1">
-        <v>1373.210000</v>
+        <v>1373.21</v>
       </c>
       <c r="BL2" s="1">
-        <v>-355.692000</v>
+        <v>-355.69200000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>76296.675196</v>
+        <v>76296.675195999997</v>
       </c>
       <c r="BO2" s="1">
         <v>21.193521</v>
       </c>
       <c r="BP2" s="1">
-        <v>1488.070000</v>
+        <v>1488.07</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-575.939000</v>
+        <v>-575.93899999999996</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>76307.012816</v>
+        <v>76307.012816000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>21.196392</v>
+        <v>21.196391999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1620.450000</v>
+        <v>1620.45</v>
       </c>
       <c r="BV2" s="1">
-        <v>-824.445000</v>
+        <v>-824.44500000000005</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>76317.937232</v>
+        <v>76317.937231999997</v>
       </c>
       <c r="BY2" s="1">
         <v>21.199427</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1772.960000</v>
+        <v>1772.96</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1092.680000</v>
+        <v>-1092.68</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>76329.146817</v>
+        <v>76329.146817000001</v>
       </c>
       <c r="CD2" s="1">
         <v>21.202541</v>
       </c>
       <c r="CE2" s="1">
-        <v>2188.280000</v>
+        <v>2188.2800000000002</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1742.220000</v>
+        <v>-1742.22</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>76158.383140</v>
+        <v>76158.383140000005</v>
       </c>
       <c r="B3" s="1">
         <v>21.155106</v>
       </c>
       <c r="C3" s="1">
-        <v>1149.470000</v>
+        <v>1149.47</v>
       </c>
       <c r="D3" s="1">
-        <v>-255.597000</v>
+        <v>-255.59700000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>76168.781765</v>
+        <v>76168.781765000007</v>
       </c>
       <c r="G3" s="1">
         <v>21.157995</v>
       </c>
       <c r="H3" s="1">
-        <v>1171.060000</v>
+        <v>1171.06</v>
       </c>
       <c r="I3" s="1">
-        <v>-215.481000</v>
+        <v>-215.48099999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>76179.920918</v>
+        <v>76179.920918000003</v>
       </c>
       <c r="L3" s="1">
         <v>21.161089</v>
       </c>
       <c r="M3" s="1">
-        <v>1199.790000</v>
+        <v>1199.79</v>
       </c>
       <c r="N3" s="1">
-        <v>-150.791000</v>
+        <v>-150.791</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>76190.424696</v>
+        <v>76190.424696000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>21.164007</v>
+        <v>21.164007000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>1207.970000</v>
+        <v>1207.97</v>
       </c>
       <c r="S3" s="1">
-        <v>-128.976000</v>
+        <v>-128.976</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>76201.375370</v>
+        <v>76201.375369999994</v>
       </c>
       <c r="V3" s="1">
-        <v>21.167049</v>
+        <v>21.167048999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1215.590000</v>
+        <v>1215.5899999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-108.329000</v>
+        <v>-108.32899999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>76211.544844</v>
+        <v>76211.544844000004</v>
       </c>
       <c r="AA3" s="1">
         <v>21.169874</v>
       </c>
       <c r="AB3" s="1">
-        <v>1223.510000</v>
+        <v>1223.51</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.282800</v>
+        <v>-91.282799999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>76221.825945</v>
+        <v>76221.825945000004</v>
       </c>
       <c r="AF3" s="1">
         <v>21.172729</v>
       </c>
       <c r="AG3" s="1">
-        <v>1228.500000</v>
+        <v>1228.5</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.856500</v>
+        <v>-86.856499999999997</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>76231.598630</v>
+        <v>76231.598629999993</v>
       </c>
       <c r="AK3" s="1">
-        <v>21.175444</v>
+        <v>21.175443999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1235.860000</v>
+        <v>1235.8599999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-90.044600</v>
+        <v>-90.044600000000003</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>76241.866773</v>
+        <v>76241.866773000002</v>
       </c>
       <c r="AP3" s="1">
         <v>21.178296</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1244.000000</v>
+        <v>1244</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.907000</v>
+        <v>-101.907</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>76252.891845</v>
+        <v>76252.891845000006</v>
       </c>
       <c r="AU3" s="1">
         <v>21.181359</v>
       </c>
       <c r="AV3" s="1">
-        <v>1254.060000</v>
+        <v>1254.06</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.128000</v>
+        <v>-121.128</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>76263.983392</v>
+        <v>76263.983391999995</v>
       </c>
       <c r="AZ3" s="1">
-        <v>21.184440</v>
+        <v>21.184439999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1262.630000</v>
+        <v>1262.6300000000001</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.546000</v>
+        <v>-138.54599999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>76274.961832</v>
+        <v>76274.961832000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>21.187489</v>
+        <v>21.187488999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1303.110000</v>
+        <v>1303.1099999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-220.124000</v>
+        <v>-220.124</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>76285.669962</v>
       </c>
       <c r="BJ3" s="1">
-        <v>21.190464</v>
+        <v>21.190463999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1373.150000</v>
+        <v>1373.15</v>
       </c>
       <c r="BL3" s="1">
-        <v>-355.666000</v>
+        <v>-355.666</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>76297.098284</v>
+        <v>76297.098284000007</v>
       </c>
       <c r="BO3" s="1">
         <v>21.193638</v>
       </c>
       <c r="BP3" s="1">
-        <v>1488.000000</v>
+        <v>1488</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-575.951000</v>
+        <v>-575.95100000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>76307.482525</v>
+        <v>76307.482524999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>21.196523</v>
+        <v>21.196522999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1620.430000</v>
+        <v>1620.43</v>
       </c>
       <c r="BV3" s="1">
-        <v>-824.361000</v>
+        <v>-824.36099999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>76318.408435</v>
+        <v>76318.408435000005</v>
       </c>
       <c r="BY3" s="1">
         <v>21.199558</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1772.860000</v>
+        <v>1772.86</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1092.610000</v>
+        <v>-1092.6099999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>76329.684950</v>
+        <v>76329.684949999995</v>
       </c>
       <c r="CD3" s="1">
-        <v>21.202690</v>
+        <v>21.20269</v>
       </c>
       <c r="CE3" s="1">
-        <v>2189.500000</v>
+        <v>2189.5</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1743.410000</v>
+        <v>-1743.41</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>76159.051250</v>
+        <v>76159.051250000004</v>
       </c>
       <c r="B4" s="1">
-        <v>21.155292</v>
+        <v>21.155291999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1149.080000</v>
+        <v>1149.08</v>
       </c>
       <c r="D4" s="1">
-        <v>-255.583000</v>
+        <v>-255.583</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>76169.442298</v>
+        <v>76169.442297999994</v>
       </c>
       <c r="G4" s="1">
-        <v>21.158178</v>
+        <v>21.158177999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1171.400000</v>
+        <v>1171.4000000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-214.392000</v>
+        <v>-214.392</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>76180.289477</v>
+        <v>76180.289476999998</v>
       </c>
       <c r="L4" s="1">
         <v>21.161192</v>
       </c>
       <c r="M4" s="1">
-        <v>1199.590000</v>
+        <v>1199.5899999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-150.625000</v>
+        <v>-150.625</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>76190.812073</v>
+        <v>76190.812072999994</v>
       </c>
       <c r="Q4" s="1">
-        <v>21.164114</v>
+        <v>21.164114000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1207.990000</v>
+        <v>1207.99</v>
       </c>
       <c r="S4" s="1">
-        <v>-129.083000</v>
+        <v>-129.083</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>76201.716121</v>
+        <v>76201.716121000005</v>
       </c>
       <c r="V4" s="1">
-        <v>21.167143</v>
+        <v>21.167142999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1215.650000</v>
+        <v>1215.6500000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-108.469000</v>
+        <v>-108.46899999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>76211.893035</v>
+        <v>76211.893035000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>21.169970</v>
+        <v>21.169969999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1223.580000</v>
+        <v>1223.58</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.378000</v>
+        <v>-91.378</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>76222.168688</v>
+        <v>76222.168688000005</v>
       </c>
       <c r="AF4" s="1">
         <v>21.172825</v>
       </c>
       <c r="AG4" s="1">
-        <v>1228.570000</v>
+        <v>1228.57</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.784600</v>
+        <v>-86.784599999999998</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>76232.022177</v>
+        <v>76232.022177000006</v>
       </c>
       <c r="AK4" s="1">
-        <v>21.175562</v>
+        <v>21.175561999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1235.870000</v>
+        <v>1235.8699999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-90.103300</v>
+        <v>-90.103300000000004</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>76242.585971</v>
+        <v>76242.585970999993</v>
       </c>
       <c r="AP4" s="1">
-        <v>21.178496</v>
+        <v>21.178495999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1243.980000</v>
+        <v>1243.98</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.909000</v>
+        <v>-101.90900000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>76253.225157</v>
+        <v>76253.225156999993</v>
       </c>
       <c r="AU4" s="1">
-        <v>21.181451</v>
+        <v>21.181450999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1254.090000</v>
+        <v>1254.0899999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.118000</v>
+        <v>-121.11799999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>76264.342486</v>
+        <v>76264.342485999994</v>
       </c>
       <c r="AZ4" s="1">
-        <v>21.184540</v>
+        <v>21.184539999999998</v>
       </c>
       <c r="BA4" s="1">
-        <v>1262.620000</v>
+        <v>1262.6199999999999</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.534000</v>
+        <v>-138.53399999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>76275.324904</v>
+        <v>76275.324903999994</v>
       </c>
       <c r="BE4" s="1">
-        <v>21.187590</v>
+        <v>21.18759</v>
       </c>
       <c r="BF4" s="1">
-        <v>1303.090000</v>
+        <v>1303.0899999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-220.123000</v>
+        <v>-220.12299999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>76286.045929</v>
       </c>
       <c r="BJ4" s="1">
-        <v>21.190568</v>
+        <v>21.190567999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1373.170000</v>
+        <v>1373.17</v>
       </c>
       <c r="BL4" s="1">
-        <v>-355.720000</v>
+        <v>-355.72</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>76297.518891</v>
       </c>
       <c r="BO4" s="1">
-        <v>21.193755</v>
+        <v>21.193754999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1488.050000</v>
+        <v>1488.05</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-575.938000</v>
+        <v>-575.93799999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>76307.931406</v>
+        <v>76307.931406000003</v>
       </c>
       <c r="BT4" s="1">
         <v>21.196648</v>
       </c>
       <c r="BU4" s="1">
-        <v>1620.420000</v>
+        <v>1620.42</v>
       </c>
       <c r="BV4" s="1">
-        <v>-824.424000</v>
+        <v>-824.42399999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>76318.829008</v>
+        <v>76318.829008000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>21.199675</v>
+        <v>21.199674999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1772.860000</v>
+        <v>1772.86</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1092.800000</v>
+        <v>-1092.8</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>76330.208751</v>
+        <v>76330.208750999998</v>
       </c>
       <c r="CD4" s="1">
-        <v>21.202836</v>
+        <v>21.202836000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>2189.350000</v>
+        <v>2189.35</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1743.760000</v>
+        <v>-1743.76</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>76159.408905</v>
+        <v>76159.408905000004</v>
       </c>
       <c r="B5" s="1">
-        <v>21.155391</v>
+        <v>21.155391000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>1149.200000</v>
+        <v>1149.2</v>
       </c>
       <c r="D5" s="1">
-        <v>-255.426000</v>
+        <v>-255.42599999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>76169.815923</v>
+        <v>76169.815923000002</v>
       </c>
       <c r="G5" s="1">
         <v>21.158282</v>
       </c>
       <c r="H5" s="1">
-        <v>1171.520000</v>
+        <v>1171.52</v>
       </c>
       <c r="I5" s="1">
-        <v>-215.410000</v>
+        <v>-215.41</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>76180.632181</v>
+        <v>76180.632180999994</v>
       </c>
       <c r="L5" s="1">
-        <v>21.161287</v>
+        <v>21.161287000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>1199.760000</v>
+        <v>1199.76</v>
       </c>
       <c r="N5" s="1">
-        <v>-150.905000</v>
+        <v>-150.905</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>76191.159768</v>
+        <v>76191.159767999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>21.164211</v>
+        <v>21.164211000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>1207.910000</v>
+        <v>1207.9100000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-129.106000</v>
+        <v>-129.10599999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>76202.060383</v>
+        <v>76202.060383000004</v>
       </c>
       <c r="V5" s="1">
-        <v>21.167239</v>
+        <v>21.167238999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1215.600000</v>
+        <v>1215.5999999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-108.309000</v>
+        <v>-108.309</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>76212.319595</v>
+        <v>76212.319594999994</v>
       </c>
       <c r="AA5" s="1">
-        <v>21.170089</v>
+        <v>21.170089000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1223.480000</v>
+        <v>1223.48</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.535800</v>
+        <v>-91.535799999999995</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>76222.586782</v>
+        <v>76222.586781999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>21.172941</v>
+        <v>21.172941000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>1228.520000</v>
+        <v>1228.52</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.904000</v>
+        <v>-86.903999999999996</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>76232.318785</v>
+        <v>76232.318784999996</v>
       </c>
       <c r="AK5" s="1">
-        <v>21.175644</v>
+        <v>21.175643999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>1235.860000</v>
+        <v>1235.8599999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-90.086100</v>
+        <v>-90.086100000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>76242.945570</v>
+        <v>76242.945569999996</v>
       </c>
       <c r="AP5" s="1">
-        <v>21.178596</v>
+        <v>21.178595999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1243.990000</v>
+        <v>1243.99</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.905000</v>
+        <v>-101.905</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>76253.593190</v>
+        <v>76253.59319</v>
       </c>
       <c r="AU5" s="1">
-        <v>21.181554</v>
+        <v>21.181553999999998</v>
       </c>
       <c r="AV5" s="1">
-        <v>1254.090000</v>
+        <v>1254.0899999999999</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.121000</v>
+        <v>-121.121</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>76264.703574</v>
+        <v>76264.703573999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>21.184640</v>
+        <v>21.184640000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1262.630000</v>
+        <v>1262.6300000000001</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.562000</v>
+        <v>-138.56200000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>76275.914152</v>
+        <v>76275.914151999998</v>
       </c>
       <c r="BE5" s="1">
-        <v>21.187754</v>
+        <v>21.187754000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1303.100000</v>
+        <v>1303.0999999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-220.137000</v>
+        <v>-220.137</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>76286.797864</v>
+        <v>76286.797863999993</v>
       </c>
       <c r="BJ5" s="1">
-        <v>21.190777</v>
+        <v>21.190777000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1373.150000</v>
+        <v>1373.15</v>
       </c>
       <c r="BL5" s="1">
-        <v>-355.691000</v>
+        <v>-355.69099999999997</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>76297.915226</v>
+        <v>76297.915225999997</v>
       </c>
       <c r="BO5" s="1">
-        <v>21.193865</v>
+        <v>21.193864999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1488.010000</v>
+        <v>1488.01</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-575.923000</v>
+        <v>-575.923</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>76308.321798</v>
+        <v>76308.321798000004</v>
       </c>
       <c r="BT5" s="1">
-        <v>21.196756</v>
+        <v>21.196756000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1620.560000</v>
+        <v>1620.56</v>
       </c>
       <c r="BV5" s="1">
-        <v>-824.473000</v>
+        <v>-824.47299999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>76319.251637</v>
+        <v>76319.251636999994</v>
       </c>
       <c r="BY5" s="1">
-        <v>21.199792</v>
+        <v>21.199791999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1772.940000</v>
+        <v>1772.94</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1092.800000</v>
+        <v>-1092.8</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>76331.045503</v>
+        <v>76331.045503000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>21.203068</v>
+        <v>21.203067999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>2190.560000</v>
+        <v>2190.56</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1742.210000</v>
+        <v>-1742.21</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>76159.752098</v>
+        <v>76159.752097999997</v>
       </c>
       <c r="B6" s="1">
-        <v>21.155487</v>
+        <v>21.155487000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1149.330000</v>
+        <v>1149.33</v>
       </c>
       <c r="D6" s="1">
-        <v>-255.662000</v>
+        <v>-255.66200000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>76170.162627</v>
+        <v>76170.162626999998</v>
       </c>
       <c r="G6" s="1">
         <v>21.158379</v>
       </c>
       <c r="H6" s="1">
-        <v>1170.710000</v>
+        <v>1170.71</v>
       </c>
       <c r="I6" s="1">
-        <v>-215.245000</v>
+        <v>-215.245</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>76180.977924</v>
+        <v>76180.977924000006</v>
       </c>
       <c r="L6" s="1">
-        <v>21.161383</v>
+        <v>21.161383000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1199.570000</v>
+        <v>1199.57</v>
       </c>
       <c r="N6" s="1">
-        <v>-151.001000</v>
+        <v>-151.001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>76191.507033</v>
+        <v>76191.507033000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>21.164308</v>
+        <v>21.164307999999998</v>
       </c>
       <c r="R6" s="1">
-        <v>1207.880000</v>
+        <v>1207.8800000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-129.025000</v>
+        <v>-129.02500000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>76202.485447</v>
+        <v>76202.485446999999</v>
       </c>
       <c r="V6" s="1">
-        <v>21.167357</v>
+        <v>21.167356999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1215.750000</v>
+        <v>1215.75</v>
       </c>
       <c r="X6" s="1">
-        <v>-108.389000</v>
+        <v>-108.389</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>76212.598379</v>
+        <v>76212.598379000003</v>
       </c>
       <c r="AA6" s="1">
-        <v>21.170166</v>
+        <v>21.170165999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>1223.630000</v>
+        <v>1223.6300000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.489000</v>
+        <v>-91.489000000000004</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>76222.863053</v>
+        <v>76222.863052999994</v>
       </c>
       <c r="AF6" s="1">
-        <v>21.173018</v>
+        <v>21.173017999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1228.530000</v>
+        <v>1228.53</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.886400</v>
+        <v>-86.886399999999995</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>76232.665490</v>
+        <v>76232.665489999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>21.175740</v>
+        <v>21.175740000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1235.870000</v>
+        <v>1235.8699999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-90.081800</v>
+        <v>-90.081800000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>76243.307650</v>
+        <v>76243.307650000002</v>
       </c>
       <c r="AP6" s="1">
         <v>21.178697</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1243.970000</v>
+        <v>1243.97</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.883000</v>
+        <v>-101.883</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>76253.957252</v>
+        <v>76253.957251999993</v>
       </c>
       <c r="AU6" s="1">
-        <v>21.181655</v>
+        <v>21.181654999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1254.100000</v>
+        <v>1254.0999999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.139000</v>
+        <v>-121.139</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>76265.417813</v>
+        <v>76265.417812999993</v>
       </c>
       <c r="AZ6" s="1">
-        <v>21.184838</v>
+        <v>21.184837999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1262.630000</v>
+        <v>1262.6300000000001</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.527000</v>
+        <v>-138.52699999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>76276.060471</v>
+        <v>76276.060471000004</v>
       </c>
       <c r="BE6" s="1">
-        <v>21.187795</v>
+        <v>21.187795000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1303.110000</v>
+        <v>1303.1099999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-220.129000</v>
+        <v>-220.12899999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>76287.171384</v>
+        <v>76287.171384000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>21.190881</v>
+        <v>21.190881000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1373.160000</v>
+        <v>1373.16</v>
       </c>
       <c r="BL6" s="1">
-        <v>-355.730000</v>
+        <v>-355.73</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>76298.334809</v>
+        <v>76298.334809000007</v>
       </c>
       <c r="BO6" s="1">
-        <v>21.193982</v>
+        <v>21.193981999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1488.020000</v>
+        <v>1488.02</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-575.981000</v>
+        <v>-575.98099999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>76309.011693</v>
+        <v>76309.011692999993</v>
       </c>
       <c r="BT6" s="1">
-        <v>21.196948</v>
+        <v>21.196947999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1620.390000</v>
+        <v>1620.39</v>
       </c>
       <c r="BV6" s="1">
-        <v>-824.310000</v>
+        <v>-824.31</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>76319.989149</v>
+        <v>76319.989149000001</v>
       </c>
       <c r="BY6" s="1">
         <v>21.199997</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1772.850000</v>
+        <v>1772.85</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1092.730000</v>
+        <v>-1092.73</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>76331.280077</v>
+        <v>76331.280077000003</v>
       </c>
       <c r="CD6" s="1">
-        <v>21.203133</v>
+        <v>21.203133000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>2187.950000</v>
+        <v>2187.9499999999998</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1741.400000</v>
+        <v>-1741.4</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>76160.092848</v>
       </c>
       <c r="B7" s="1">
-        <v>21.155581</v>
+        <v>21.155581000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>1149.440000</v>
+        <v>1149.44</v>
       </c>
       <c r="D7" s="1">
-        <v>-255.299000</v>
+        <v>-255.29900000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>76170.505363</v>
+        <v>76170.505363000004</v>
       </c>
       <c r="G7" s="1">
-        <v>21.158474</v>
+        <v>21.158473999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>1171.170000</v>
+        <v>1171.17</v>
       </c>
       <c r="I7" s="1">
-        <v>-215.342000</v>
+        <v>-215.34200000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>76181.408916</v>
       </c>
       <c r="L7" s="1">
-        <v>21.161502</v>
+        <v>21.161501999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1199.680000</v>
+        <v>1199.68</v>
       </c>
       <c r="N7" s="1">
-        <v>-150.909000</v>
+        <v>-150.90899999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>76192.206326</v>
       </c>
       <c r="Q7" s="1">
-        <v>21.164502</v>
+        <v>21.164501999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1207.950000</v>
+        <v>1207.95</v>
       </c>
       <c r="S7" s="1">
-        <v>-129.000000</v>
+        <v>-129</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>76202.754776</v>
+        <v>76202.754776000002</v>
       </c>
       <c r="V7" s="1">
-        <v>21.167432</v>
+        <v>21.167432000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>1215.640000</v>
+        <v>1215.6400000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-108.223000</v>
+        <v>-108.223</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>76212.946538</v>
+        <v>76212.946538000004</v>
       </c>
       <c r="AA7" s="1">
-        <v>21.170263</v>
+        <v>21.170262999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>1223.580000</v>
+        <v>1223.58</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.539500</v>
+        <v>-91.539500000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>76223.208269</v>
+        <v>76223.208268999995</v>
       </c>
       <c r="AF7" s="1">
-        <v>21.173113</v>
+        <v>21.173113000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1228.510000</v>
+        <v>1228.51</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.859600</v>
+        <v>-86.8596</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>76233.015167</v>
+        <v>76233.015167000005</v>
       </c>
       <c r="AK7" s="1">
-        <v>21.175838</v>
+        <v>21.175837999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1235.880000</v>
+        <v>1235.8800000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-90.103200</v>
+        <v>-90.103200000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>76244.037266</v>
+        <v>76244.037265999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>21.178899</v>
+        <v>21.178899000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1243.990000</v>
+        <v>1243.99</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.928000</v>
+        <v>-101.928</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>76254.686868</v>
+        <v>76254.686868000004</v>
       </c>
       <c r="AU7" s="1">
-        <v>21.181857</v>
+        <v>21.181857000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1254.080000</v>
+        <v>1254.08</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.131000</v>
+        <v>-121.131</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>76265.777412</v>
+        <v>76265.777411999996</v>
       </c>
       <c r="AZ7" s="1">
-        <v>21.184938</v>
+        <v>21.184937999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1262.610000</v>
+        <v>1262.6099999999999</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.538000</v>
+        <v>-138.53800000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>76276.439415</v>
+        <v>76276.439415000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>21.187900</v>
+        <v>21.187899999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1303.080000</v>
+        <v>1303.08</v>
       </c>
       <c r="BG7" s="1">
-        <v>-220.128000</v>
+        <v>-220.12799999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>76287.547351</v>
+        <v>76287.547351000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>21.190985</v>
+        <v>21.190985000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1373.160000</v>
+        <v>1373.16</v>
       </c>
       <c r="BL7" s="1">
-        <v>-355.727000</v>
+        <v>-355.72699999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>76299.050041</v>
+        <v>76299.050040999995</v>
       </c>
       <c r="BO7" s="1">
         <v>21.194181</v>
       </c>
       <c r="BP7" s="1">
-        <v>1488.040000</v>
+        <v>1488.04</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-575.932000</v>
+        <v>-575.93200000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>76309.487851</v>
+        <v>76309.487850999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>21.197080</v>
+        <v>21.19708</v>
       </c>
       <c r="BU7" s="1">
-        <v>1620.350000</v>
+        <v>1620.35</v>
       </c>
       <c r="BV7" s="1">
-        <v>-824.441000</v>
+        <v>-824.44100000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>76320.117118</v>
+        <v>76320.117117999995</v>
       </c>
       <c r="BY7" s="1">
-        <v>21.200033</v>
+        <v>21.200033000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1772.810000</v>
+        <v>1772.81</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1092.630000</v>
+        <v>-1092.6300000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>76331.812821</v>
@@ -2006,1450 +2422,1450 @@
         <v>21.203281</v>
       </c>
       <c r="CE7" s="1">
-        <v>2189.560000</v>
+        <v>2189.56</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1743.400000</v>
+        <v>-1743.4</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>76160.528336</v>
+        <v>76160.528336000003</v>
       </c>
       <c r="B8" s="1">
-        <v>21.155702</v>
+        <v>21.155702000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>1149.420000</v>
+        <v>1149.42</v>
       </c>
       <c r="D8" s="1">
-        <v>-255.359000</v>
+        <v>-255.35900000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>76170.935431</v>
+        <v>76170.935431000005</v>
       </c>
       <c r="G8" s="1">
         <v>21.158593</v>
       </c>
       <c r="H8" s="1">
-        <v>1171.000000</v>
+        <v>1171</v>
       </c>
       <c r="I8" s="1">
-        <v>-215.411000</v>
+        <v>-215.411</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>76181.681716</v>
+        <v>76181.681716000006</v>
       </c>
       <c r="L8" s="1">
-        <v>21.161578</v>
+        <v>21.161577999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1199.660000</v>
+        <v>1199.6600000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-150.524000</v>
+        <v>-150.524</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>76192.554517</v>
+        <v>76192.554516999997</v>
       </c>
       <c r="Q8" s="1">
-        <v>21.164598</v>
+        <v>21.164598000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>1207.980000</v>
+        <v>1207.98</v>
       </c>
       <c r="S8" s="1">
-        <v>-129.031000</v>
+        <v>-129.03100000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>76203.099991</v>
+        <v>76203.099990999995</v>
       </c>
       <c r="V8" s="1">
-        <v>21.167528</v>
+        <v>21.167528000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1215.710000</v>
+        <v>1215.71</v>
       </c>
       <c r="X8" s="1">
-        <v>-108.393000</v>
+        <v>-108.393</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>76213.297210</v>
+        <v>76213.297210000004</v>
       </c>
       <c r="AA8" s="1">
-        <v>21.170360</v>
+        <v>21.170359999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1223.680000</v>
+        <v>1223.68</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.357100</v>
+        <v>-91.357100000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>76223.550013</v>
       </c>
       <c r="AF8" s="1">
-        <v>21.173208</v>
+        <v>21.173207999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1228.520000</v>
+        <v>1228.52</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.853800</v>
+        <v>-86.853800000000007</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>76233.700143</v>
+        <v>76233.700142999995</v>
       </c>
       <c r="AK8" s="1">
-        <v>21.176028</v>
+        <v>21.176027999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1235.870000</v>
+        <v>1235.8699999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-90.100200</v>
+        <v>-90.100200000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>76244.414721</v>
+        <v>76244.414720999994</v>
       </c>
       <c r="AP8" s="1">
-        <v>21.179004</v>
+        <v>21.179003999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1244.000000</v>
+        <v>1244</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.897000</v>
+        <v>-101.89700000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>76255.071304</v>
+        <v>76255.071303999997</v>
       </c>
       <c r="AU8" s="1">
-        <v>21.181964</v>
+        <v>21.181964000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1254.090000</v>
+        <v>1254.0899999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.126000</v>
+        <v>-121.126</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>76266.133801</v>
+        <v>76266.133801000004</v>
       </c>
       <c r="AZ8" s="1">
-        <v>21.185037</v>
+        <v>21.185037000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1262.630000</v>
+        <v>1262.6300000000001</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.565000</v>
+        <v>-138.565</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>76277.143734</v>
+        <v>76277.143733999997</v>
       </c>
       <c r="BE8" s="1">
-        <v>21.188095</v>
+        <v>21.188095000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1303.100000</v>
+        <v>1303.0999999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-220.137000</v>
+        <v>-220.137</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>76288.240728</v>
+        <v>76288.240728000004</v>
       </c>
       <c r="BJ8" s="1">
-        <v>21.191178</v>
+        <v>21.191178000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1373.170000</v>
+        <v>1373.17</v>
       </c>
       <c r="BL8" s="1">
-        <v>-355.704000</v>
+        <v>-355.70400000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>76299.160152</v>
+        <v>76299.160151999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>21.194211</v>
+        <v>21.194210999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1488.040000</v>
+        <v>1488.04</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-575.931000</v>
+        <v>-575.93100000000004</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>76309.901515</v>
+        <v>76309.901515000005</v>
       </c>
       <c r="BT8" s="1">
-        <v>21.197195</v>
+        <v>21.197195000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1620.390000</v>
+        <v>1620.39</v>
       </c>
       <c r="BV8" s="1">
-        <v>-824.375000</v>
+        <v>-824.375</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>76320.532764</v>
+        <v>76320.532764000003</v>
       </c>
       <c r="BY8" s="1">
-        <v>21.200148</v>
+        <v>21.200147999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1772.950000</v>
+        <v>1772.95</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1092.670000</v>
+        <v>-1092.67</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>76332.351934</v>
+        <v>76332.351934000006</v>
       </c>
       <c r="CD8" s="1">
-        <v>21.203431</v>
+        <v>21.203430999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>2189.820000</v>
+        <v>2189.8200000000002</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1741.100000</v>
+        <v>-1741.1</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>76160.806132</v>
+        <v>76160.806131999998</v>
       </c>
       <c r="B9" s="1">
-        <v>21.155779</v>
+        <v>21.155778999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1149.280000</v>
+        <v>1149.28</v>
       </c>
       <c r="D9" s="1">
-        <v>-255.503000</v>
+        <v>-255.50299999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>76171.202241</v>
+        <v>76171.202241000006</v>
       </c>
       <c r="G9" s="1">
-        <v>21.158667</v>
+        <v>21.158667000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1170.290000</v>
+        <v>1170.29</v>
       </c>
       <c r="I9" s="1">
-        <v>-215.695000</v>
+        <v>-215.69499999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>76182.030405</v>
+        <v>76182.030404999998</v>
       </c>
       <c r="L9" s="1">
-        <v>21.161675</v>
+        <v>21.161674999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1199.680000</v>
+        <v>1199.68</v>
       </c>
       <c r="N9" s="1">
-        <v>-150.785000</v>
+        <v>-150.785</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>76192.902246</v>
+        <v>76192.902245999998</v>
       </c>
       <c r="Q9" s="1">
-        <v>21.164695</v>
+        <v>21.164694999999998</v>
       </c>
       <c r="R9" s="1">
-        <v>1207.970000</v>
+        <v>1207.97</v>
       </c>
       <c r="S9" s="1">
-        <v>-129.072000</v>
+        <v>-129.072</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>76203.443223</v>
+        <v>76203.443222999995</v>
       </c>
       <c r="V9" s="1">
-        <v>21.167623</v>
+        <v>21.167622999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1215.510000</v>
+        <v>1215.51</v>
       </c>
       <c r="X9" s="1">
-        <v>-108.289000</v>
+        <v>-108.289</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>76213.993097</v>
+        <v>76213.993096999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>21.170554</v>
+        <v>21.170553999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1223.600000</v>
+        <v>1223.5999999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.257100</v>
+        <v>-91.257099999999994</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>76224.240941</v>
+        <v>76224.240940999996</v>
       </c>
       <c r="AF9" s="1">
-        <v>21.173400</v>
+        <v>21.173400000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1228.520000</v>
+        <v>1228.52</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.897000</v>
+        <v>-86.897000000000006</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>76234.060238</v>
+        <v>76234.060238000005</v>
       </c>
       <c r="AK9" s="1">
-        <v>21.176128</v>
+        <v>21.176127999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1235.880000</v>
+        <v>1235.8800000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-90.089800</v>
+        <v>-90.089799999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>76244.773824</v>
+        <v>76244.773824000004</v>
       </c>
       <c r="AP9" s="1">
-        <v>21.179104</v>
+        <v>21.179103999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1243.970000</v>
+        <v>1243.97</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.908000</v>
+        <v>-101.908</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>76255.436818</v>
+        <v>76255.436818000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>21.182066</v>
+        <v>21.182065999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1254.110000</v>
+        <v>1254.1099999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.143000</v>
+        <v>-121.143</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>76266.803645</v>
+        <v>76266.803645000007</v>
       </c>
       <c r="AZ9" s="1">
-        <v>21.185223</v>
+        <v>21.185223000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1262.650000</v>
+        <v>1262.6500000000001</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.564000</v>
+        <v>-138.56399999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>76277.560901</v>
+        <v>76277.560901000004</v>
       </c>
       <c r="BE9" s="1">
-        <v>21.188211</v>
+        <v>21.188210999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1303.090000</v>
+        <v>1303.0899999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-220.160000</v>
+        <v>-220.16</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>76288.671254</v>
+        <v>76288.671254000001</v>
       </c>
       <c r="BJ9" s="1">
         <v>21.191298</v>
       </c>
       <c r="BK9" s="1">
-        <v>1373.160000</v>
+        <v>1373.16</v>
       </c>
       <c r="BL9" s="1">
-        <v>-355.670000</v>
+        <v>-355.67</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>76299.578808</v>
+        <v>76299.578808000006</v>
       </c>
       <c r="BO9" s="1">
-        <v>21.194327</v>
+        <v>21.194327000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1488.010000</v>
+        <v>1488.01</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-575.979000</v>
+        <v>-575.97900000000004</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>76310.331547</v>
+        <v>76310.331546999994</v>
       </c>
       <c r="BT9" s="1">
-        <v>21.197314</v>
+        <v>21.197313999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1620.400000</v>
+        <v>1620.4</v>
       </c>
       <c r="BV9" s="1">
-        <v>-824.365000</v>
+        <v>-824.36500000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>76320.983163</v>
+        <v>76320.983162999997</v>
       </c>
       <c r="BY9" s="1">
-        <v>21.200273</v>
+        <v>21.200272999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1772.960000</v>
+        <v>1772.96</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1092.860000</v>
+        <v>-1092.8599999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>76332.893563</v>
+        <v>76332.893563000005</v>
       </c>
       <c r="CD9" s="1">
-        <v>21.203582</v>
+        <v>21.203582000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>2188.420000</v>
+        <v>2188.42</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1742.820000</v>
+        <v>-1742.82</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>76161.148832</v>
+        <v>76161.148832000006</v>
       </c>
       <c r="B10" s="1">
-        <v>21.155875</v>
+        <v>21.155875000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>1149.210000</v>
+        <v>1149.21</v>
       </c>
       <c r="D10" s="1">
-        <v>-255.561000</v>
+        <v>-255.56100000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>76171.548946</v>
+        <v>76171.548945999995</v>
       </c>
       <c r="G10" s="1">
-        <v>21.158764</v>
+        <v>21.158764000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1171.370000</v>
+        <v>1171.3699999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-215.719000</v>
+        <v>-215.71899999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>76182.374515</v>
+        <v>76182.374515000003</v>
       </c>
       <c r="L10" s="1">
-        <v>21.161771</v>
+        <v>21.161771000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>1199.850000</v>
+        <v>1199.8499999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-150.719000</v>
+        <v>-150.71899999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>76193.599620</v>
+        <v>76193.599619999994</v>
       </c>
       <c r="Q10" s="1">
-        <v>21.164889</v>
+        <v>21.164888999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1207.860000</v>
+        <v>1207.8599999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-129.106000</v>
+        <v>-129.10599999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>76204.130646</v>
+        <v>76204.130646000005</v>
       </c>
       <c r="V10" s="1">
         <v>21.167814</v>
       </c>
       <c r="W10" s="1">
-        <v>1215.720000</v>
+        <v>1215.72</v>
       </c>
       <c r="X10" s="1">
-        <v>-108.336000</v>
+        <v>-108.336</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>76214.342281</v>
+        <v>76214.342281000005</v>
       </c>
       <c r="AA10" s="1">
-        <v>21.170651</v>
+        <v>21.170650999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1223.560000</v>
+        <v>1223.56</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.410700</v>
+        <v>-91.410700000000006</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>76224.578752</v>
+        <v>76224.578752000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>21.173494</v>
+        <v>21.173494000000002</v>
       </c>
       <c r="AG10" s="1">
-        <v>1228.540000</v>
+        <v>1228.54</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.852500</v>
+        <v>-86.852500000000006</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>76234.410414</v>
+        <v>76234.410413999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>21.176225</v>
+        <v>21.176224999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1235.860000</v>
+        <v>1235.8599999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-90.078200</v>
+        <v>-90.078199999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>76245.439488</v>
+        <v>76245.439488000004</v>
       </c>
       <c r="AP10" s="1">
-        <v>21.179289</v>
+        <v>21.179289000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1243.990000</v>
+        <v>1243.99</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.901000</v>
+        <v>-101.901</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>76256.118052</v>
+        <v>76256.118052000005</v>
       </c>
       <c r="AU10" s="1">
-        <v>21.182255</v>
+        <v>21.182255000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1254.080000</v>
+        <v>1254.08</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.127000</v>
+        <v>-121.127</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>76267.210851</v>
+        <v>76267.210850999996</v>
       </c>
       <c r="AZ10" s="1">
         <v>21.185336</v>
       </c>
       <c r="BA10" s="1">
-        <v>1262.630000</v>
+        <v>1262.6300000000001</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.560000</v>
+        <v>-138.56</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>76277.940341</v>
+        <v>76277.940340999994</v>
       </c>
       <c r="BE10" s="1">
-        <v>21.188317</v>
+        <v>21.188317000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1303.090000</v>
+        <v>1303.0899999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-220.106000</v>
+        <v>-220.10599999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>76289.048742</v>
+        <v>76289.048741999999</v>
       </c>
       <c r="BJ10" s="1">
         <v>21.191402</v>
       </c>
       <c r="BK10" s="1">
-        <v>1373.140000</v>
+        <v>1373.14</v>
       </c>
       <c r="BL10" s="1">
-        <v>-355.697000</v>
+        <v>-355.697</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>76299.976567</v>
+        <v>76299.976567000005</v>
       </c>
       <c r="BO10" s="1">
-        <v>21.194438</v>
+        <v>21.194438000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1488.020000</v>
+        <v>1488.02</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-575.958000</v>
+        <v>-575.95799999999997</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>76310.755625</v>
+        <v>76310.755625000005</v>
       </c>
       <c r="BT10" s="1">
-        <v>21.197432</v>
+        <v>21.197431999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1620.390000</v>
+        <v>1620.39</v>
       </c>
       <c r="BV10" s="1">
-        <v>-824.475000</v>
+        <v>-824.47500000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>76321.401270</v>
+        <v>76321.401270000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>21.200389</v>
+        <v>21.200389000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1773.030000</v>
+        <v>1773.03</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1093.010000</v>
+        <v>-1093.01</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>76333.431227</v>
+        <v>76333.431226999994</v>
       </c>
       <c r="CD10" s="1">
-        <v>21.203731</v>
+        <v>21.203731000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>2190.820000</v>
+        <v>2190.8200000000002</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1742.860000</v>
+        <v>-1742.86</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>76161.490115</v>
+        <v>76161.490114999993</v>
       </c>
       <c r="B11" s="1">
-        <v>21.155969</v>
+        <v>21.155968999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1149.310000</v>
+        <v>1149.31</v>
       </c>
       <c r="D11" s="1">
-        <v>-255.447000</v>
+        <v>-255.447</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>76171.895154</v>
+        <v>76171.895153999998</v>
       </c>
       <c r="G11" s="1">
-        <v>21.158860</v>
+        <v>21.158860000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1170.890000</v>
+        <v>1170.8900000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-214.841000</v>
+        <v>-214.84100000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>76183.068530</v>
+        <v>76183.068530000004</v>
       </c>
       <c r="L11" s="1">
         <v>21.161963</v>
       </c>
       <c r="M11" s="1">
-        <v>1199.830000</v>
+        <v>1199.83</v>
       </c>
       <c r="N11" s="1">
-        <v>-150.932000</v>
+        <v>-150.93199999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>76193.947779</v>
+        <v>76193.947778999995</v>
       </c>
       <c r="Q11" s="1">
-        <v>21.164985</v>
+        <v>21.164985000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1207.860000</v>
+        <v>1207.8599999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-129.059000</v>
+        <v>-129.059</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>76204.474373</v>
+        <v>76204.474373000005</v>
       </c>
       <c r="V11" s="1">
-        <v>21.167910</v>
+        <v>21.167909999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1215.520000</v>
+        <v>1215.52</v>
       </c>
       <c r="X11" s="1">
-        <v>-108.486000</v>
+        <v>-108.486</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>76214.692952</v>
+        <v>76214.692951999998</v>
       </c>
       <c r="AA11" s="1">
         <v>21.170748</v>
       </c>
       <c r="AB11" s="1">
-        <v>1223.590000</v>
+        <v>1223.5899999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.251200</v>
+        <v>-91.251199999999997</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>76224.923932</v>
+        <v>76224.923932000005</v>
       </c>
       <c r="AF11" s="1">
-        <v>21.173590</v>
+        <v>21.173590000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1228.500000</v>
+        <v>1228.5</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.851800</v>
+        <v>-86.851799999999997</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>76235.082989</v>
+        <v>76235.082989000002</v>
       </c>
       <c r="AK11" s="1">
-        <v>21.176412</v>
+        <v>21.176411999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1235.870000</v>
+        <v>1235.8699999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-90.084300</v>
+        <v>-90.084299999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>76245.846703</v>
+        <v>76245.846703000003</v>
       </c>
       <c r="AP11" s="1">
         <v>21.179402</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1243.960000</v>
+        <v>1243.96</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.902000</v>
+        <v>-101.902</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>76256.567201</v>
+        <v>76256.567200999998</v>
       </c>
       <c r="AU11" s="1">
-        <v>21.182380</v>
+        <v>21.182379999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>1254.080000</v>
+        <v>1254.08</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.122000</v>
+        <v>-121.122</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>76267.599714</v>
+        <v>76267.599713999996</v>
       </c>
       <c r="AZ11" s="1">
         <v>21.185444</v>
       </c>
       <c r="BA11" s="1">
-        <v>1262.610000</v>
+        <v>1262.6099999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.555000</v>
+        <v>-138.55500000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>76278.303909</v>
+        <v>76278.303908999995</v>
       </c>
       <c r="BE11" s="1">
-        <v>21.188418</v>
+        <v>21.188417999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1303.100000</v>
+        <v>1303.0999999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-220.117000</v>
+        <v>-220.11699999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>76289.425669</v>
+        <v>76289.425669000004</v>
       </c>
       <c r="BJ11" s="1">
-        <v>21.191507</v>
+        <v>21.191507000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1373.180000</v>
+        <v>1373.18</v>
       </c>
       <c r="BL11" s="1">
-        <v>-355.723000</v>
+        <v>-355.72300000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>76300.402630</v>
+        <v>76300.402629999997</v>
       </c>
       <c r="BO11" s="1">
-        <v>21.194556</v>
+        <v>21.194555999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1487.990000</v>
+        <v>1487.99</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-575.926000</v>
+        <v>-575.92600000000004</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>76311.159864</v>
+        <v>76311.159864000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>21.197544</v>
+        <v>21.197544000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1620.440000</v>
+        <v>1620.44</v>
       </c>
       <c r="BV11" s="1">
-        <v>-824.423000</v>
+        <v>-824.423</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>76321.825834</v>
+        <v>76321.825834000003</v>
       </c>
       <c r="BY11" s="1">
-        <v>21.200507</v>
+        <v>21.200507000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1773.010000</v>
+        <v>1773.01</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1092.890000</v>
+        <v>-1092.8900000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>76333.970874</v>
+        <v>76333.970874000006</v>
       </c>
       <c r="CD11" s="1">
-        <v>21.203881</v>
+        <v>21.203880999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>2187.990000</v>
+        <v>2187.9899999999998</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1741.270000</v>
+        <v>-1741.27</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>76162.174062</v>
+        <v>76162.174062000006</v>
       </c>
       <c r="B12" s="1">
-        <v>21.156159</v>
+        <v>21.156158999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1149.270000</v>
+        <v>1149.27</v>
       </c>
       <c r="D12" s="1">
-        <v>-255.411000</v>
+        <v>-255.411</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>76172.587104</v>
+        <v>76172.587104000006</v>
       </c>
       <c r="G12" s="1">
-        <v>21.159052</v>
+        <v>21.159051999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1171.860000</v>
+        <v>1171.8599999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-214.227000</v>
+        <v>-214.227</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>76183.414737</v>
+        <v>76183.414736999999</v>
       </c>
       <c r="L12" s="1">
-        <v>21.162060</v>
+        <v>21.16206</v>
       </c>
       <c r="M12" s="1">
-        <v>1199.750000</v>
+        <v>1199.75</v>
       </c>
       <c r="N12" s="1">
-        <v>-150.840000</v>
+        <v>-150.84</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>76194.298451</v>
+        <v>76194.298450999995</v>
       </c>
       <c r="Q12" s="1">
-        <v>21.165083</v>
+        <v>21.165082999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1207.860000</v>
+        <v>1207.8599999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-129.006000</v>
+        <v>-129.006</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>76204.816646</v>
+        <v>76204.816646000007</v>
       </c>
       <c r="V12" s="1">
-        <v>21.168005</v>
+        <v>21.168005000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1215.600000</v>
+        <v>1215.5999999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-108.387000</v>
+        <v>-108.387</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>76215.362065</v>
+        <v>76215.362064999994</v>
       </c>
       <c r="AA12" s="1">
-        <v>21.170934</v>
+        <v>21.170933999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1223.640000</v>
+        <v>1223.6400000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.449500</v>
+        <v>-91.4495</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>76225.491850</v>
+        <v>76225.491850000006</v>
       </c>
       <c r="AF12" s="1">
         <v>21.173748</v>
       </c>
       <c r="AG12" s="1">
-        <v>1228.520000</v>
+        <v>1228.52</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.806200</v>
+        <v>-86.806200000000004</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>76235.455982</v>
+        <v>76235.455981999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>21.176516</v>
+        <v>21.176515999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1235.880000</v>
+        <v>1235.8800000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-90.101600</v>
+        <v>-90.101600000000005</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>76246.239006</v>
+        <v>76246.239006000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>21.179511</v>
+        <v>21.179511000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1243.980000</v>
+        <v>1243.98</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.918000</v>
+        <v>-101.91800000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>76256.929280</v>
+        <v>76256.929279999997</v>
       </c>
       <c r="AU12" s="1">
-        <v>21.182480</v>
+        <v>21.182480000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>1254.110000</v>
+        <v>1254.1099999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.132000</v>
+        <v>-121.13200000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>76267.959345</v>
+        <v>76267.959344999996</v>
       </c>
       <c r="AZ12" s="1">
         <v>21.185544</v>
       </c>
       <c r="BA12" s="1">
-        <v>1262.630000</v>
+        <v>1262.6300000000001</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.544000</v>
+        <v>-138.54400000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>76278.723524</v>
+        <v>76278.723524000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>21.188534</v>
+        <v>21.188534000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1303.110000</v>
+        <v>1303.1099999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-220.124000</v>
+        <v>-220.124</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>76289.847269</v>
+        <v>76289.847269000005</v>
       </c>
       <c r="BJ12" s="1">
-        <v>21.191624</v>
+        <v>21.191624000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1373.160000</v>
+        <v>1373.16</v>
       </c>
       <c r="BL12" s="1">
-        <v>-355.726000</v>
+        <v>-355.726</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>76300.795462</v>
+        <v>76300.795461999995</v>
       </c>
       <c r="BO12" s="1">
-        <v>21.194665</v>
+        <v>21.194665000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1488.000000</v>
+        <v>1488</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-575.951000</v>
+        <v>-575.95100000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>76311.577497</v>
+        <v>76311.577497000006</v>
       </c>
       <c r="BT12" s="1">
-        <v>21.197660</v>
+        <v>21.197659999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1620.430000</v>
+        <v>1620.43</v>
       </c>
       <c r="BV12" s="1">
-        <v>-824.410000</v>
+        <v>-824.41</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>76322.273226</v>
+        <v>76322.273226000005</v>
       </c>
       <c r="BY12" s="1">
-        <v>21.200631</v>
+        <v>21.200631000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1772.930000</v>
+        <v>1772.93</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1092.840000</v>
+        <v>-1092.8399999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>76334.512010</v>
+        <v>76334.512010000006</v>
       </c>
       <c r="CD12" s="1">
-        <v>21.204031</v>
+        <v>21.204031000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2189.910000</v>
+        <v>2189.91</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1743.380000</v>
+        <v>-1743.38</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>76162.517789</v>
+        <v>76162.517789000005</v>
       </c>
       <c r="B13" s="1">
-        <v>21.156255</v>
+        <v>21.156255000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>1149.450000</v>
+        <v>1149.45</v>
       </c>
       <c r="D13" s="1">
-        <v>-255.221000</v>
+        <v>-255.221</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>76172.933279</v>
+        <v>76172.933279000004</v>
       </c>
       <c r="G13" s="1">
-        <v>21.159148</v>
+        <v>21.159147999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>1170.600000</v>
+        <v>1170.5999999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-215.888000</v>
+        <v>-215.88800000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>76183.757968</v>
+        <v>76183.757968000005</v>
       </c>
       <c r="L13" s="1">
-        <v>21.162155</v>
+        <v>21.162154999999998</v>
       </c>
       <c r="M13" s="1">
-        <v>1199.940000</v>
+        <v>1199.94</v>
       </c>
       <c r="N13" s="1">
-        <v>-150.945000</v>
+        <v>-150.94499999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>76194.957635</v>
+        <v>76194.957634999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>21.165266</v>
+        <v>21.165265999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1207.960000</v>
+        <v>1207.96</v>
       </c>
       <c r="S13" s="1">
-        <v>-129.027000</v>
+        <v>-129.02699999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>76205.471332</v>
+        <v>76205.471332000001</v>
       </c>
       <c r="V13" s="1">
-        <v>21.168186</v>
+        <v>21.168185999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1215.580000</v>
+        <v>1215.58</v>
       </c>
       <c r="X13" s="1">
-        <v>-108.112000</v>
+        <v>-108.11199999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>76215.739051</v>
+        <v>76215.739050999997</v>
       </c>
       <c r="AA13" s="1">
         <v>21.171039</v>
       </c>
       <c r="AB13" s="1">
-        <v>1223.590000</v>
+        <v>1223.5899999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.308800</v>
+        <v>-91.308800000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>76225.622793</v>
+        <v>76225.622793000002</v>
       </c>
       <c r="AF13" s="1">
-        <v>21.173784</v>
+        <v>21.173784000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1228.460000</v>
+        <v>1228.46</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.822700</v>
+        <v>-86.822699999999998</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>76235.804670</v>
+        <v>76235.804669999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>21.176612</v>
+        <v>21.176611999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1235.890000</v>
+        <v>1235.8900000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-90.098600</v>
+        <v>-90.098600000000005</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>76246.598606</v>
       </c>
       <c r="AP13" s="1">
-        <v>21.179611</v>
+        <v>21.179611000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1244.000000</v>
+        <v>1244</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.901000</v>
+        <v>-101.901</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>76257.294833</v>
+        <v>76257.294833000007</v>
       </c>
       <c r="AU13" s="1">
         <v>21.182582</v>
       </c>
       <c r="AV13" s="1">
-        <v>1254.090000</v>
+        <v>1254.0899999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.149000</v>
+        <v>-121.149</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>76268.392817</v>
@@ -3458,1208 +3874,1208 @@
         <v>21.185665</v>
       </c>
       <c r="BA13" s="1">
-        <v>1262.620000</v>
+        <v>1262.6199999999999</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.555000</v>
+        <v>-138.55500000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>76279.024066</v>
+        <v>76279.024065999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>21.188618</v>
+        <v>21.188618000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1303.110000</v>
+        <v>1303.1099999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-220.142000</v>
+        <v>-220.142</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>76290.196452</v>
+        <v>76290.196452000004</v>
       </c>
       <c r="BJ13" s="1">
-        <v>21.191721</v>
+        <v>21.191721000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1373.190000</v>
+        <v>1373.19</v>
       </c>
       <c r="BL13" s="1">
-        <v>-355.676000</v>
+        <v>-355.67599999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>76301.216567</v>
+        <v>76301.216566999996</v>
       </c>
       <c r="BO13" s="1">
         <v>21.194782</v>
       </c>
       <c r="BP13" s="1">
-        <v>1488.030000</v>
+        <v>1488.03</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-575.993000</v>
+        <v>-575.99300000000005</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>76311.993145</v>
       </c>
       <c r="BT13" s="1">
-        <v>21.197776</v>
+        <v>21.197776000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1620.430000</v>
+        <v>1620.43</v>
       </c>
       <c r="BV13" s="1">
-        <v>-824.317000</v>
+        <v>-824.31700000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>76322.707723</v>
       </c>
       <c r="BY13" s="1">
-        <v>21.200752</v>
+        <v>21.200752000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1772.820000</v>
+        <v>1772.82</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1092.920000</v>
+        <v>-1092.92</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>76335.050664</v>
+        <v>76335.050663999995</v>
       </c>
       <c r="CD13" s="1">
-        <v>21.204181</v>
+        <v>21.204180999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>2189.630000</v>
+        <v>2189.63</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1741.090000</v>
+        <v>-1741.09</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>76162.861054</v>
+        <v>76162.861053999994</v>
       </c>
       <c r="B14" s="1">
-        <v>21.156350</v>
+        <v>21.15635</v>
       </c>
       <c r="C14" s="1">
-        <v>1149.420000</v>
+        <v>1149.42</v>
       </c>
       <c r="D14" s="1">
-        <v>-255.476000</v>
+        <v>-255.476</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>76173.278992</v>
+        <v>76173.278992000007</v>
       </c>
       <c r="G14" s="1">
-        <v>21.159244</v>
+        <v>21.159244000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1171.410000</v>
+        <v>1171.4100000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-215.133000</v>
+        <v>-215.13300000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>76184.422608</v>
+        <v>76184.422607999993</v>
       </c>
       <c r="L14" s="1">
-        <v>21.162340</v>
+        <v>21.16234</v>
       </c>
       <c r="M14" s="1">
-        <v>1199.550000</v>
+        <v>1199.55</v>
       </c>
       <c r="N14" s="1">
-        <v>-151.033000</v>
+        <v>-151.03299999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>76195.344018</v>
+        <v>76195.344018000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>21.165373</v>
+        <v>21.165372999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1207.940000</v>
+        <v>1207.94</v>
       </c>
       <c r="S14" s="1">
-        <v>-129.059000</v>
+        <v>-129.059</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>76205.847327</v>
+        <v>76205.847326999996</v>
       </c>
       <c r="V14" s="1">
         <v>21.168291</v>
       </c>
       <c r="W14" s="1">
-        <v>1215.890000</v>
+        <v>1215.8900000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-108.255000</v>
+        <v>-108.255</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>76216.085751</v>
+        <v>76216.085751000006</v>
       </c>
       <c r="AA14" s="1">
         <v>21.171135</v>
       </c>
       <c r="AB14" s="1">
-        <v>1223.620000</v>
+        <v>1223.6199999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.334800</v>
+        <v>-91.334800000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>76225.955609</v>
+        <v>76225.955608999997</v>
       </c>
       <c r="AF14" s="1">
-        <v>21.173877</v>
+        <v>21.173877000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1228.530000</v>
+        <v>1228.53</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.844700</v>
+        <v>-86.844700000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>76236.152366</v>
+        <v>76236.152365999995</v>
       </c>
       <c r="AK14" s="1">
-        <v>21.176709</v>
+        <v>21.176708999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1235.880000</v>
+        <v>1235.8800000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-90.087500</v>
+        <v>-90.087500000000006</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>76247.025165</v>
+        <v>76247.025164999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>21.179729</v>
+        <v>21.179728999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1244.010000</v>
+        <v>1244.01</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.889000</v>
+        <v>-101.889</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>76257.738255</v>
+        <v>76257.738255000004</v>
       </c>
       <c r="AU14" s="1">
-        <v>21.182705</v>
+        <v>21.182704999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1254.090000</v>
+        <v>1254.0899999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.126000</v>
+        <v>-121.126</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>76268.674546</v>
+        <v>76268.674545999995</v>
       </c>
       <c r="AZ14" s="1">
-        <v>21.185743</v>
+        <v>21.185742999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1262.650000</v>
+        <v>1262.6500000000001</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.537000</v>
+        <v>-138.53700000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>76279.382674</v>
+        <v>76279.382673999993</v>
       </c>
       <c r="BE14" s="1">
         <v>21.188717</v>
       </c>
       <c r="BF14" s="1">
-        <v>1303.110000</v>
+        <v>1303.1099999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-220.143000</v>
+        <v>-220.143</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>76290.570931</v>
+        <v>76290.570930999995</v>
       </c>
       <c r="BJ14" s="1">
-        <v>21.191825</v>
+        <v>21.191825000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1373.140000</v>
+        <v>1373.14</v>
       </c>
       <c r="BL14" s="1">
-        <v>-355.712000</v>
+        <v>-355.71199999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>76301.612374</v>
+        <v>76301.612374000004</v>
       </c>
       <c r="BO14" s="1">
-        <v>21.194892</v>
+        <v>21.194891999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1488.050000</v>
+        <v>1488.05</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-575.941000</v>
+        <v>-575.94100000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>76312.420727</v>
+        <v>76312.420727000004</v>
       </c>
       <c r="BT14" s="1">
-        <v>21.197895</v>
+        <v>21.197894999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1620.480000</v>
+        <v>1620.48</v>
       </c>
       <c r="BV14" s="1">
-        <v>-824.431000</v>
+        <v>-824.43100000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>76323.129828</v>
+        <v>76323.129828000005</v>
       </c>
       <c r="BY14" s="1">
-        <v>21.200869</v>
+        <v>21.200869000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1772.830000</v>
+        <v>1772.83</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1092.770000</v>
+        <v>-1092.77</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>76335.592297</v>
+        <v>76335.592296999996</v>
       </c>
       <c r="CD14" s="1">
         <v>21.204331</v>
       </c>
       <c r="CE14" s="1">
-        <v>2188.280000</v>
+        <v>2188.2800000000002</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1742.690000</v>
+        <v>-1742.69</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>76163.516764</v>
       </c>
       <c r="B15" s="1">
-        <v>21.156532</v>
+        <v>21.156531999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1149.320000</v>
+        <v>1149.32</v>
       </c>
       <c r="D15" s="1">
-        <v>-255.434000</v>
+        <v>-255.434</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>76173.951567</v>
+        <v>76173.951566999996</v>
       </c>
       <c r="G15" s="1">
-        <v>21.159431</v>
+        <v>21.159431000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1170.480000</v>
+        <v>1170.48</v>
       </c>
       <c r="I15" s="1">
-        <v>-214.306000</v>
+        <v>-214.30600000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>76184.795599</v>
+        <v>76184.795599000005</v>
       </c>
       <c r="L15" s="1">
         <v>21.162443</v>
       </c>
       <c r="M15" s="1">
-        <v>1199.640000</v>
+        <v>1199.6400000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-150.920000</v>
+        <v>-150.91999999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>76195.694689</v>
+        <v>76195.694688999996</v>
       </c>
       <c r="Q15" s="1">
         <v>21.165471</v>
       </c>
       <c r="R15" s="1">
-        <v>1207.880000</v>
+        <v>1207.8800000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-129.094000</v>
+        <v>-129.09399999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>76206.190036</v>
       </c>
       <c r="V15" s="1">
-        <v>21.168386</v>
+        <v>21.168386000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>1215.540000</v>
+        <v>1215.54</v>
       </c>
       <c r="X15" s="1">
-        <v>-108.429000</v>
+        <v>-108.429</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>76216.436389</v>
+        <v>76216.436388999995</v>
       </c>
       <c r="AA15" s="1">
         <v>21.171232</v>
       </c>
       <c r="AB15" s="1">
-        <v>1223.610000</v>
+        <v>1223.6099999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.414900</v>
+        <v>-91.414900000000003</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>76226.379193</v>
+        <v>76226.379193000001</v>
       </c>
       <c r="AF15" s="1">
         <v>21.173994</v>
       </c>
       <c r="AG15" s="1">
-        <v>1228.500000</v>
+        <v>1228.5</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.877100</v>
+        <v>-86.877099999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>76236.566523</v>
+        <v>76236.566523000001</v>
       </c>
       <c r="AK15" s="1">
         <v>21.176824</v>
       </c>
       <c r="AL15" s="1">
-        <v>1235.850000</v>
+        <v>1235.8499999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-90.079500</v>
+        <v>-90.079499999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>76247.318657</v>
+        <v>76247.318656999996</v>
       </c>
       <c r="AP15" s="1">
-        <v>21.179811</v>
+        <v>21.179811000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1243.960000</v>
+        <v>1243.96</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.906000</v>
+        <v>-101.90600000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>76258.024446</v>
+        <v>76258.024445999996</v>
       </c>
       <c r="AU15" s="1">
-        <v>21.182785</v>
+        <v>21.182784999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1254.090000</v>
+        <v>1254.0899999999999</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.140000</v>
+        <v>-121.14</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>76269.037120</v>
+        <v>76269.037119999994</v>
       </c>
       <c r="AZ15" s="1">
-        <v>21.185844</v>
+        <v>21.185843999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1262.660000</v>
+        <v>1262.6600000000001</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.538000</v>
+        <v>-138.53800000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>76279.747234</v>
+        <v>76279.747233999995</v>
       </c>
       <c r="BE15" s="1">
-        <v>21.188819</v>
+        <v>21.188818999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1303.070000</v>
+        <v>1303.07</v>
       </c>
       <c r="BG15" s="1">
-        <v>-220.138000</v>
+        <v>-220.13800000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>76290.946901</v>
+        <v>76290.946901000003</v>
       </c>
       <c r="BJ15" s="1">
-        <v>21.191930</v>
+        <v>21.191929999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1373.190000</v>
+        <v>1373.19</v>
       </c>
       <c r="BL15" s="1">
-        <v>-355.673000</v>
+        <v>-355.673</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>76302.037978</v>
+        <v>76302.037977999993</v>
       </c>
       <c r="BO15" s="1">
-        <v>21.195011</v>
+        <v>21.195011000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1488.030000</v>
+        <v>1488.03</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-575.985000</v>
+        <v>-575.98500000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>76312.823446</v>
+        <v>76312.823445999995</v>
       </c>
       <c r="BT15" s="1">
         <v>21.198007</v>
       </c>
       <c r="BU15" s="1">
-        <v>1620.510000</v>
+        <v>1620.51</v>
       </c>
       <c r="BV15" s="1">
-        <v>-824.456000</v>
+        <v>-824.45600000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>76323.551449</v>
+        <v>76323.551449000006</v>
       </c>
       <c r="BY15" s="1">
-        <v>21.200987</v>
+        <v>21.200987000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1773.000000</v>
+        <v>1773</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1092.850000</v>
+        <v>-1092.8499999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>76336.132936</v>
+        <v>76336.132935999995</v>
       </c>
       <c r="CD15" s="1">
-        <v>21.204481</v>
+        <v>21.204481000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2190.550000</v>
+        <v>2190.5500000000002</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1742.860000</v>
+        <v>-1742.86</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>76163.881291</v>
+        <v>76163.881290999998</v>
       </c>
       <c r="B16" s="1">
         <v>21.156634</v>
       </c>
       <c r="C16" s="1">
-        <v>1149.490000</v>
+        <v>1149.49</v>
       </c>
       <c r="D16" s="1">
-        <v>-255.507000</v>
+        <v>-255.50700000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>76174.311661</v>
       </c>
       <c r="G16" s="1">
-        <v>21.159531</v>
+        <v>21.159531000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1171.600000</v>
+        <v>1171.5999999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-215.245000</v>
+        <v>-215.245</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>76185.140319</v>
+        <v>76185.140318999998</v>
       </c>
       <c r="L16" s="1">
-        <v>21.162539</v>
+        <v>21.162538999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1199.760000</v>
+        <v>1199.76</v>
       </c>
       <c r="N16" s="1">
-        <v>-150.815000</v>
+        <v>-150.815</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>76196.039409</v>
+        <v>76196.039409000005</v>
       </c>
       <c r="Q16" s="1">
-        <v>21.165567</v>
+        <v>21.165566999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1207.860000</v>
+        <v>1207.8599999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-129.126000</v>
+        <v>-129.126</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>76206.535283</v>
+        <v>76206.535283000005</v>
       </c>
       <c r="V16" s="1">
-        <v>21.168482</v>
+        <v>21.168482000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1215.580000</v>
+        <v>1215.58</v>
       </c>
       <c r="X16" s="1">
-        <v>-108.321000</v>
+        <v>-108.321</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>76216.864470</v>
+        <v>76216.86447</v>
       </c>
       <c r="AA16" s="1">
-        <v>21.171351</v>
+        <v>21.171351000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1223.650000</v>
+        <v>1223.6500000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.363400</v>
+        <v>-91.363399999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>76226.655465</v>
+        <v>76226.655465000003</v>
       </c>
       <c r="AF16" s="1">
-        <v>21.174071</v>
+        <v>21.174071000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1228.510000</v>
+        <v>1228.51</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.851200</v>
+        <v>-86.851200000000006</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>76236.861683</v>
+        <v>76236.861682999996</v>
       </c>
       <c r="AK16" s="1">
-        <v>21.176906</v>
+        <v>21.176905999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1235.870000</v>
+        <v>1235.8699999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-90.077000</v>
+        <v>-90.076999999999998</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>76247.678893</v>
+        <v>76247.678893000004</v>
       </c>
       <c r="AP16" s="1">
-        <v>21.179911</v>
+        <v>21.179911000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1244.010000</v>
+        <v>1244.01</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.918000</v>
+        <v>-101.91800000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>76258.391027</v>
+        <v>76258.391027000005</v>
       </c>
       <c r="AU16" s="1">
         <v>21.182886</v>
       </c>
       <c r="AV16" s="1">
-        <v>1254.090000</v>
+        <v>1254.0899999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.126000</v>
+        <v>-121.126</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>76269.392752</v>
       </c>
       <c r="AZ16" s="1">
-        <v>21.185942</v>
+        <v>21.185942000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1262.650000</v>
+        <v>1262.6500000000001</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.550000</v>
+        <v>-138.55000000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>76280.466434</v>
+        <v>76280.466434000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>21.189018</v>
+        <v>21.189018000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1303.100000</v>
+        <v>1303.0999999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-220.132000</v>
+        <v>-220.13200000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>76291.694866</v>
+        <v>76291.694866000005</v>
       </c>
       <c r="BJ16" s="1">
-        <v>21.192137</v>
+        <v>21.192136999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1373.170000</v>
+        <v>1373.17</v>
       </c>
       <c r="BL16" s="1">
-        <v>-355.696000</v>
+        <v>-355.69600000000003</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>76302.430505</v>
+        <v>76302.430504999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>21.195120</v>
+        <v>21.195119999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1487.990000</v>
+        <v>1487.99</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-575.934000</v>
+        <v>-575.93399999999997</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>76313.240087</v>
+        <v>76313.240086999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>21.198122</v>
+        <v>21.198122000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1620.480000</v>
+        <v>1620.48</v>
       </c>
       <c r="BV16" s="1">
-        <v>-824.432000</v>
+        <v>-824.43200000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>76323.973543</v>
       </c>
       <c r="BY16" s="1">
-        <v>21.201104</v>
+        <v>21.201104000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1772.870000</v>
+        <v>1772.87</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1092.810000</v>
+        <v>-1092.81</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>76336.987046</v>
+        <v>76336.987045999995</v>
       </c>
       <c r="CD16" s="1">
-        <v>21.204719</v>
+        <v>21.204719000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>2188.290000</v>
+        <v>2188.29</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1743.300000</v>
+        <v>-1743.3</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>76164.226041</v>
+        <v>76164.226041000002</v>
       </c>
       <c r="B17" s="1">
-        <v>21.156729</v>
+        <v>21.156728999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1149.250000</v>
+        <v>1149.25</v>
       </c>
       <c r="D17" s="1">
-        <v>-255.388000</v>
+        <v>-255.38800000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>76174.655422</v>
+        <v>76174.655421999996</v>
       </c>
       <c r="G17" s="1">
         <v>21.159627</v>
       </c>
       <c r="H17" s="1">
-        <v>1170.720000</v>
+        <v>1170.72</v>
       </c>
       <c r="I17" s="1">
-        <v>-215.226000</v>
+        <v>-215.226</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>76185.486558</v>
+        <v>76185.486558000004</v>
       </c>
       <c r="L17" s="1">
-        <v>21.162635</v>
+        <v>21.162635000000002</v>
       </c>
       <c r="M17" s="1">
-        <v>1199.680000</v>
+        <v>1199.68</v>
       </c>
       <c r="N17" s="1">
-        <v>-150.821000</v>
+        <v>-150.821</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>76196.466993</v>
+        <v>76196.466992999995</v>
       </c>
       <c r="Q17" s="1">
         <v>21.165685</v>
       </c>
       <c r="R17" s="1">
-        <v>1207.880000</v>
+        <v>1207.8800000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-129.065000</v>
+        <v>-129.065</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>76206.952883</v>
+        <v>76206.952883000005</v>
       </c>
       <c r="V17" s="1">
-        <v>21.168598</v>
+        <v>21.168597999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1215.730000</v>
+        <v>1215.73</v>
       </c>
       <c r="X17" s="1">
-        <v>-108.256000</v>
+        <v>-108.256</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>76217.143722</v>
+        <v>76217.143721999993</v>
       </c>
       <c r="AA17" s="1">
         <v>21.171429</v>
       </c>
       <c r="AB17" s="1">
-        <v>1223.690000</v>
+        <v>1223.69</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.355100</v>
+        <v>-91.355099999999993</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>76227.000184</v>
+        <v>76227.000184000004</v>
       </c>
       <c r="AF17" s="1">
-        <v>21.174167</v>
+        <v>21.174167000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1228.470000</v>
+        <v>1228.47</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.840300</v>
+        <v>-86.840299999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>76237.208842</v>
+        <v>76237.208841999993</v>
       </c>
       <c r="AK17" s="1">
-        <v>21.177002</v>
+        <v>21.177002000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>1235.880000</v>
+        <v>1235.8800000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-90.101100</v>
+        <v>-90.101100000000002</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>76248.039485</v>
+        <v>76248.039485000001</v>
       </c>
       <c r="AP17" s="1">
         <v>21.180011</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1243.960000</v>
+        <v>1243.96</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.904000</v>
+        <v>-101.904</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>76259.083903</v>
+        <v>76259.083903000006</v>
       </c>
       <c r="AU17" s="1">
-        <v>21.183079</v>
+        <v>21.183078999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1254.090000</v>
+        <v>1254.0899999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.141000</v>
+        <v>-121.14100000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>76270.115919</v>
+        <v>76270.115919000003</v>
       </c>
       <c r="AZ17" s="1">
-        <v>21.186143</v>
+        <v>21.186143000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1262.640000</v>
+        <v>1262.6400000000001</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.556000</v>
+        <v>-138.55600000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>76280.856288</v>
+        <v>76280.856287999995</v>
       </c>
       <c r="BE17" s="1">
-        <v>21.189127</v>
+        <v>21.189126999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1303.130000</v>
+        <v>1303.1300000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-220.134000</v>
+        <v>-220.13399999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>76292.110018</v>
+        <v>76292.110018000007</v>
       </c>
       <c r="BJ17" s="1">
-        <v>21.192253</v>
+        <v>21.192253000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1373.160000</v>
+        <v>1373.16</v>
       </c>
       <c r="BL17" s="1">
-        <v>-355.702000</v>
+        <v>-355.702</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>76302.855843</v>
+        <v>76302.855842999998</v>
       </c>
       <c r="BO17" s="1">
         <v>21.195238</v>
       </c>
       <c r="BP17" s="1">
-        <v>1488.020000</v>
+        <v>1488.02</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-576.011000</v>
+        <v>-576.01099999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>76313.968710</v>
+        <v>76313.968710000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>21.198325</v>
+        <v>21.198325000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1620.490000</v>
+        <v>1620.49</v>
       </c>
       <c r="BV17" s="1">
-        <v>-824.403000</v>
+        <v>-824.40300000000002</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>76324.747767</v>
+        <v>76324.747766999993</v>
       </c>
       <c r="BY17" s="1">
-        <v>21.201319</v>
+        <v>21.201319000000002</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1772.900000</v>
+        <v>1772.9</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1092.870000</v>
+        <v>-1092.8699999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>76337.212230</v>
+        <v>76337.212230000005</v>
       </c>
       <c r="CD17" s="1">
-        <v>21.204781</v>
+        <v>21.204781000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>2188.380000</v>
+        <v>2188.38</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1743.030000</v>
+        <v>-1743.03</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>76164.567754</v>
+        <v>76164.567754000003</v>
       </c>
       <c r="B18" s="1">
         <v>21.156824</v>
       </c>
       <c r="C18" s="1">
-        <v>1149.210000</v>
+        <v>1149.21</v>
       </c>
       <c r="D18" s="1">
-        <v>-255.358000</v>
+        <v>-255.358</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>76175.000606</v>
+        <v>76175.000606000001</v>
       </c>
       <c r="G18" s="1">
-        <v>21.159722</v>
+        <v>21.159721999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1170.570000</v>
+        <v>1170.57</v>
       </c>
       <c r="I18" s="1">
-        <v>-215.250000</v>
+        <v>-215.25</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>76185.921021</v>
+        <v>76185.921021000002</v>
       </c>
       <c r="L18" s="1">
-        <v>21.162756</v>
+        <v>21.162756000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>1199.680000</v>
+        <v>1199.68</v>
       </c>
       <c r="N18" s="1">
-        <v>-150.826000</v>
+        <v>-150.82599999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>76196.756624</v>
+        <v>76196.756624000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>21.165766</v>
+        <v>21.165766000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1207.840000</v>
+        <v>1207.8399999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-129.014000</v>
+        <v>-129.01400000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>76207.243042</v>
+        <v>76207.243042000002</v>
       </c>
       <c r="V18" s="1">
-        <v>21.168679</v>
+        <v>21.168679000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1215.940000</v>
+        <v>1215.94</v>
       </c>
       <c r="X18" s="1">
-        <v>-108.456000</v>
+        <v>-108.456</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>76217.491876</v>
@@ -4668,647 +5084,647 @@
         <v>21.171526</v>
       </c>
       <c r="AB18" s="1">
-        <v>1223.640000</v>
+        <v>1223.6400000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.437700</v>
+        <v>-91.437700000000007</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>76227.343415</v>
+        <v>76227.343414999996</v>
       </c>
       <c r="AF18" s="1">
-        <v>21.174262</v>
+        <v>21.174261999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1228.480000</v>
+        <v>1228.48</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.874200</v>
+        <v>-86.874200000000002</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>76237.559515</v>
+        <v>76237.559515000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>21.177100</v>
+        <v>21.177099999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1235.880000</v>
+        <v>1235.8800000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-90.093100</v>
+        <v>-90.093100000000007</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>76248.758683</v>
+        <v>76248.758682999993</v>
       </c>
       <c r="AP18" s="1">
         <v>21.180211</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1244.000000</v>
+        <v>1244</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.909000</v>
+        <v>-101.90900000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>76259.506492</v>
       </c>
       <c r="AU18" s="1">
-        <v>21.183196</v>
+        <v>21.183195999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1254.090000</v>
+        <v>1254.0899999999999</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.130000</v>
+        <v>-121.13</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>76270.492414</v>
+        <v>76270.492413999993</v>
       </c>
       <c r="AZ18" s="1">
-        <v>21.186248</v>
+        <v>21.186247999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1262.640000</v>
+        <v>1262.6400000000001</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.565000</v>
+        <v>-138.565</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>76281.216880</v>
+        <v>76281.216880000007</v>
       </c>
       <c r="BE18" s="1">
-        <v>21.189227</v>
+        <v>21.189226999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1303.120000</v>
+        <v>1303.1199999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-220.142000</v>
+        <v>-220.142</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>76292.766225</v>
+        <v>76292.766224999999</v>
       </c>
       <c r="BJ18" s="1">
         <v>21.192435</v>
       </c>
       <c r="BK18" s="1">
-        <v>1373.140000</v>
+        <v>1373.14</v>
       </c>
       <c r="BL18" s="1">
-        <v>-355.708000</v>
+        <v>-355.70800000000003</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>76303.566612</v>
+        <v>76303.566611999995</v>
       </c>
       <c r="BO18" s="1">
         <v>21.195435</v>
       </c>
       <c r="BP18" s="1">
-        <v>1488.010000</v>
+        <v>1488.01</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-575.937000</v>
+        <v>-575.93700000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>76314.077843</v>
+        <v>76314.077843000006</v>
       </c>
       <c r="BT18" s="1">
-        <v>21.198355</v>
+        <v>21.198354999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1620.510000</v>
+        <v>1620.51</v>
       </c>
       <c r="BV18" s="1">
-        <v>-824.382000</v>
+        <v>-824.38199999999995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>76324.862839</v>
+        <v>76324.862838999994</v>
       </c>
       <c r="BY18" s="1">
-        <v>21.201351</v>
+        <v>21.201350999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1772.830000</v>
+        <v>1772.83</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1092.870000</v>
+        <v>-1092.8699999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>76337.727360</v>
+        <v>76337.727360000004</v>
       </c>
       <c r="CD18" s="1">
-        <v>21.204924</v>
+        <v>21.204923999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>2190.230000</v>
+        <v>2190.23</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1742.990000</v>
+        <v>-1742.99</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>76164.998281</v>
+        <v>76164.998280999993</v>
       </c>
       <c r="B19" s="1">
-        <v>21.156944</v>
+        <v>21.156943999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1149.510000</v>
+        <v>1149.51</v>
       </c>
       <c r="D19" s="1">
-        <v>-255.539000</v>
+        <v>-255.53899999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>76175.691036</v>
+        <v>76175.691036000004</v>
       </c>
       <c r="G19" s="1">
-        <v>21.159914</v>
+        <v>21.159914000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1171.700000</v>
+        <v>1171.7</v>
       </c>
       <c r="I19" s="1">
-        <v>-214.988000</v>
+        <v>-214.988</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>76186.195807</v>
+        <v>76186.195806999996</v>
       </c>
       <c r="L19" s="1">
-        <v>21.162832</v>
+        <v>21.162832000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>1200.060000</v>
+        <v>1200.06</v>
       </c>
       <c r="N19" s="1">
-        <v>-150.863000</v>
+        <v>-150.863</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>76197.106497</v>
+        <v>76197.106497000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>21.165863</v>
+        <v>21.165863000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>1207.940000</v>
+        <v>1207.94</v>
       </c>
       <c r="S19" s="1">
-        <v>-129.026000</v>
+        <v>-129.02600000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>76207.578833</v>
+        <v>76207.578833000007</v>
       </c>
       <c r="V19" s="1">
-        <v>21.168772</v>
+        <v>21.168772000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1215.680000</v>
+        <v>1215.68</v>
       </c>
       <c r="X19" s="1">
-        <v>-108.637000</v>
+        <v>-108.637</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>76217.840651</v>
+        <v>76217.840651000006</v>
       </c>
       <c r="AA19" s="1">
-        <v>21.171622</v>
+        <v>21.171621999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1223.710000</v>
+        <v>1223.71</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.454300</v>
+        <v>-91.454300000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>76228.027894</v>
+        <v>76228.027893999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>21.174452</v>
+        <v>21.174451999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1228.480000</v>
+        <v>1228.48</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.845000</v>
+        <v>-86.844999999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>76238.256888</v>
+        <v>76238.256888000004</v>
       </c>
       <c r="AK19" s="1">
         <v>21.177294</v>
       </c>
       <c r="AL19" s="1">
-        <v>1235.870000</v>
+        <v>1235.8699999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-90.083500</v>
+        <v>-90.083500000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>76249.120795</v>
+        <v>76249.120794999995</v>
       </c>
       <c r="AP19" s="1">
         <v>21.180311</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1244.000000</v>
+        <v>1244</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.928000</v>
+        <v>-101.928</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>76259.874028</v>
+        <v>76259.874028000006</v>
       </c>
       <c r="AU19" s="1">
-        <v>21.183298</v>
+        <v>21.183298000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1254.090000</v>
+        <v>1254.0899999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.140000</v>
+        <v>-121.14</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>76270.880254</v>
+        <v>76270.880254000003</v>
       </c>
       <c r="AZ19" s="1">
         <v>21.186356</v>
       </c>
       <c r="BA19" s="1">
-        <v>1262.620000</v>
+        <v>1262.6199999999999</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.557000</v>
+        <v>-138.55699999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>76281.897919</v>
+        <v>76281.897918999995</v>
       </c>
       <c r="BE19" s="1">
-        <v>21.189416</v>
+        <v>21.189416000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1303.100000</v>
+        <v>1303.0999999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-220.124000</v>
+        <v>-220.124</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>76293.195264</v>
+        <v>76293.195263999994</v>
       </c>
       <c r="BJ19" s="1">
-        <v>21.192554</v>
+        <v>21.192554000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1373.200000</v>
+        <v>1373.2</v>
       </c>
       <c r="BL19" s="1">
-        <v>-355.711000</v>
+        <v>-355.71100000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>76303.676722</v>
+        <v>76303.676722000004</v>
       </c>
       <c r="BO19" s="1">
         <v>21.195466</v>
       </c>
       <c r="BP19" s="1">
-        <v>1488.040000</v>
+        <v>1488.04</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-575.927000</v>
+        <v>-575.92700000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>76314.508852</v>
+        <v>76314.508851999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>21.198475</v>
+        <v>21.198474999999998</v>
       </c>
       <c r="BU19" s="1">
-        <v>1620.530000</v>
+        <v>1620.53</v>
       </c>
       <c r="BV19" s="1">
-        <v>-824.388000</v>
+        <v>-824.38800000000003</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>76325.293367</v>
+        <v>76325.293367000006</v>
       </c>
       <c r="BY19" s="1">
-        <v>21.201470</v>
+        <v>21.20147</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1772.910000</v>
+        <v>1772.91</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1092.920000</v>
+        <v>-1092.92</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>76338.246389</v>
+        <v>76338.246389000007</v>
       </c>
       <c r="CD19" s="1">
-        <v>21.205068</v>
+        <v>21.205068000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>2189.700000</v>
+        <v>2189.6999999999998</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1743.180000</v>
+        <v>-1743.18</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>76165.266152</v>
+        <v>76165.266151999997</v>
       </c>
       <c r="B20" s="1">
-        <v>21.157018</v>
+        <v>21.157018000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1149.370000</v>
+        <v>1149.3699999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-255.390000</v>
+        <v>-255.39</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>76176.037771</v>
+        <v>76176.037771000003</v>
       </c>
       <c r="G20" s="1">
-        <v>21.160010</v>
+        <v>21.16001</v>
       </c>
       <c r="H20" s="1">
-        <v>1170.790000</v>
+        <v>1170.79</v>
       </c>
       <c r="I20" s="1">
-        <v>-215.336000</v>
+        <v>-215.33600000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>76186.543997</v>
+        <v>76186.543997000001</v>
       </c>
       <c r="L20" s="1">
-        <v>21.162929</v>
+        <v>21.162928999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>1199.720000</v>
+        <v>1199.72</v>
       </c>
       <c r="N20" s="1">
-        <v>-150.990000</v>
+        <v>-150.99</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>76197.453007</v>
+        <v>76197.453007000004</v>
       </c>
       <c r="Q20" s="1">
-        <v>21.165959</v>
+        <v>21.165959000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1207.990000</v>
+        <v>1207.99</v>
       </c>
       <c r="S20" s="1">
-        <v>-129.111000</v>
+        <v>-129.11099999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>76207.934961</v>
+        <v>76207.934961000006</v>
       </c>
       <c r="V20" s="1">
-        <v>21.168871</v>
+        <v>21.168870999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1215.720000</v>
+        <v>1215.72</v>
       </c>
       <c r="X20" s="1">
-        <v>-108.392000</v>
+        <v>-108.392</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>76218.537457</v>
+        <v>76218.537456999999</v>
       </c>
       <c r="AA20" s="1">
         <v>21.171816</v>
       </c>
       <c r="AB20" s="1">
-        <v>1223.590000</v>
+        <v>1223.5899999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.354900</v>
+        <v>-91.354900000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>76228.374146</v>
+        <v>76228.374146000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>21.174548</v>
+        <v>21.174548000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1228.520000</v>
+        <v>1228.52</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.876300</v>
+        <v>-86.876300000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>76238.603096</v>
+        <v>76238.603096000006</v>
       </c>
       <c r="AK20" s="1">
-        <v>21.177390</v>
+        <v>21.177389999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1235.870000</v>
+        <v>1235.8699999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-90.091200</v>
+        <v>-90.091200000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>76249.482346</v>
+        <v>76249.482346000004</v>
       </c>
       <c r="AP20" s="1">
         <v>21.180412</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1244.000000</v>
+        <v>1244</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.923000</v>
+        <v>-101.923</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>76260.550868</v>
+        <v>76260.550868000006</v>
       </c>
       <c r="AU20" s="1">
-        <v>21.183486</v>
+        <v>21.183485999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>1254.090000</v>
+        <v>1254.0899999999999</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.143000</v>
+        <v>-121.143</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>76271.554855</v>
+        <v>76271.554854999995</v>
       </c>
       <c r="AZ20" s="1">
         <v>21.186543</v>
       </c>
       <c r="BA20" s="1">
-        <v>1262.620000</v>
+        <v>1262.6199999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.535000</v>
+        <v>-138.535</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>76282.328414</v>
+        <v>76282.328414000003</v>
       </c>
       <c r="BE20" s="1">
         <v>21.189536</v>
       </c>
       <c r="BF20" s="1">
-        <v>1303.090000</v>
+        <v>1303.0899999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-220.151000</v>
+        <v>-220.15100000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>76293.571232</v>
+        <v>76293.571232000002</v>
       </c>
       <c r="BJ20" s="1">
-        <v>21.192659</v>
+        <v>21.192658999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1373.140000</v>
+        <v>1373.14</v>
       </c>
       <c r="BL20" s="1">
-        <v>-355.692000</v>
+        <v>-355.69200000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>76304.093858</v>
+        <v>76304.093857999993</v>
       </c>
       <c r="BO20" s="1">
-        <v>21.195582</v>
+        <v>21.195582000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1488.060000</v>
+        <v>1488.06</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-575.963000</v>
+        <v>-575.96299999999997</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>76314.927012</v>
@@ -5317,46 +5733,46 @@
         <v>21.198591</v>
       </c>
       <c r="BU20" s="1">
-        <v>1620.560000</v>
+        <v>1620.56</v>
       </c>
       <c r="BV20" s="1">
-        <v>-824.379000</v>
+        <v>-824.37900000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>76325.750677</v>
+        <v>76325.750677000004</v>
       </c>
       <c r="BY20" s="1">
         <v>21.201597</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1773.010000</v>
+        <v>1773.01</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1092.910000</v>
+        <v>-1092.9100000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>76338.810837</v>
+        <v>76338.810836999997</v>
       </c>
       <c r="CD20" s="1">
-        <v>21.205225</v>
+        <v>21.205224999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>2188.100000</v>
+        <v>2188.1</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1742.740000</v>
+        <v>-1742.74</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>76165.609224</v>
       </c>
@@ -5364,1251 +5780,1251 @@
         <v>21.157114</v>
       </c>
       <c r="C21" s="1">
-        <v>1149.170000</v>
+        <v>1149.17</v>
       </c>
       <c r="D21" s="1">
-        <v>-255.525000</v>
+        <v>-255.52500000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>76176.388906</v>
+        <v>76176.388905999993</v>
       </c>
       <c r="G21" s="1">
-        <v>21.160108</v>
+        <v>21.160108000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1171.800000</v>
+        <v>1171.8</v>
       </c>
       <c r="I21" s="1">
-        <v>-216.185000</v>
+        <v>-216.185</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>76186.888716</v>
+        <v>76186.888716000001</v>
       </c>
       <c r="L21" s="1">
-        <v>21.163025</v>
+        <v>21.163025000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1199.760000</v>
+        <v>1199.76</v>
       </c>
       <c r="N21" s="1">
-        <v>-150.664000</v>
+        <v>-150.66399999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>76198.148894</v>
+        <v>76198.148893999998</v>
       </c>
       <c r="Q21" s="1">
         <v>21.166152</v>
       </c>
       <c r="R21" s="1">
-        <v>1207.850000</v>
+        <v>1207.8499999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-129.097000</v>
+        <v>-129.09700000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>76208.631345</v>
+        <v>76208.631345000002</v>
       </c>
       <c r="V21" s="1">
-        <v>21.169064</v>
+        <v>21.169063999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1215.560000</v>
+        <v>1215.56</v>
       </c>
       <c r="X21" s="1">
-        <v>-108.503000</v>
+        <v>-108.503</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>76218.882690</v>
+        <v>76218.882689999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>21.171912</v>
+        <v>21.171911999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1223.580000</v>
+        <v>1223.58</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.378600</v>
+        <v>-91.378600000000006</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>76228.715381</v>
+        <v>76228.715381000002</v>
       </c>
       <c r="AF21" s="1">
         <v>21.174643</v>
       </c>
       <c r="AG21" s="1">
-        <v>1228.510000</v>
+        <v>1228.51</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.890200</v>
+        <v>-86.890199999999993</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>76238.955265</v>
+        <v>76238.955264999997</v>
       </c>
       <c r="AK21" s="1">
         <v>21.177488</v>
       </c>
       <c r="AL21" s="1">
-        <v>1235.870000</v>
+        <v>1235.8699999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-90.063400</v>
+        <v>-90.063400000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>76250.153961</v>
+        <v>76250.153961000004</v>
       </c>
       <c r="AP21" s="1">
         <v>21.180598</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1243.980000</v>
+        <v>1243.98</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.908000</v>
+        <v>-101.908</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>76260.998986</v>
+        <v>76260.998986000006</v>
       </c>
       <c r="AU21" s="1">
-        <v>21.183611</v>
+        <v>21.183610999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1254.100000</v>
+        <v>1254.0999999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.128000</v>
+        <v>-121.128</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>76271.956605</v>
+        <v>76271.956604999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>21.186655</v>
+        <v>21.186654999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1262.640000</v>
+        <v>1262.6400000000001</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.566000</v>
+        <v>-138.566</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>76282.689502</v>
+        <v>76282.689501999994</v>
       </c>
       <c r="BE21" s="1">
         <v>21.189636</v>
       </c>
       <c r="BF21" s="1">
-        <v>1303.100000</v>
+        <v>1303.0999999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-220.125000</v>
+        <v>-220.125</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>76293.946703</v>
+        <v>76293.946702999994</v>
       </c>
       <c r="BJ21" s="1">
-        <v>21.192763</v>
+        <v>21.192762999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1373.170000</v>
+        <v>1373.17</v>
       </c>
       <c r="BL21" s="1">
-        <v>-355.700000</v>
+        <v>-355.7</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>76304.491153</v>
+        <v>76304.491152999995</v>
       </c>
       <c r="BO21" s="1">
-        <v>21.195692</v>
+        <v>21.195692000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1488.030000</v>
+        <v>1488.03</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-575.987000</v>
+        <v>-575.98699999999997</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>76315.349571</v>
+        <v>76315.349570999999</v>
       </c>
       <c r="BT21" s="1">
         <v>21.198708</v>
       </c>
       <c r="BU21" s="1">
-        <v>1620.580000</v>
+        <v>1620.58</v>
       </c>
       <c r="BV21" s="1">
-        <v>-824.336000</v>
+        <v>-824.33600000000001</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>76326.204021</v>
+        <v>76326.204020999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>21.201723</v>
+        <v>21.201723000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1773.030000</v>
+        <v>1773.03</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1092.810000</v>
+        <v>-1092.81</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>76339.333123</v>
+        <v>76339.333123000004</v>
       </c>
       <c r="CD21" s="1">
-        <v>21.205370</v>
+        <v>21.205369999999998</v>
       </c>
       <c r="CE21" s="1">
-        <v>2189.660000</v>
+        <v>2189.66</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1743.140000</v>
+        <v>-1743.14</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>76165.949608</v>
+        <v>76165.949607999995</v>
       </c>
       <c r="B22" s="1">
-        <v>21.157208</v>
+        <v>21.157208000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1149.270000</v>
+        <v>1149.27</v>
       </c>
       <c r="D22" s="1">
-        <v>-255.473000</v>
+        <v>-255.47300000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>76177.074385</v>
       </c>
       <c r="G22" s="1">
-        <v>21.160298</v>
+        <v>21.160298000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1171.200000</v>
+        <v>1171.2</v>
       </c>
       <c r="I22" s="1">
-        <v>-215.151000</v>
+        <v>-215.15100000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>76187.580636</v>
+        <v>76187.580635999999</v>
       </c>
       <c r="L22" s="1">
         <v>21.163217</v>
       </c>
       <c r="M22" s="1">
-        <v>1199.900000</v>
+        <v>1199.9000000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-150.828000</v>
+        <v>-150.828</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>76198.501549</v>
+        <v>76198.501548999993</v>
       </c>
       <c r="Q22" s="1">
-        <v>21.166250</v>
+        <v>21.166250000000002</v>
       </c>
       <c r="R22" s="1">
-        <v>1207.880000</v>
+        <v>1207.8800000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>-129.032000</v>
+        <v>-129.03200000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>76208.971104</v>
+        <v>76208.971103999997</v>
       </c>
       <c r="V22" s="1">
-        <v>21.169159</v>
+        <v>21.169159000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1215.630000</v>
+        <v>1215.6300000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-108.422000</v>
+        <v>-108.422</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>76219.235810</v>
+        <v>76219.235809999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>21.172010</v>
+        <v>21.17201</v>
       </c>
       <c r="AB22" s="1">
-        <v>1223.560000</v>
+        <v>1223.56</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.450600</v>
+        <v>-91.450599999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>76229.378500</v>
+        <v>76229.378500000006</v>
       </c>
       <c r="AF22" s="1">
-        <v>21.174827</v>
+        <v>21.174827000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1228.580000</v>
+        <v>1228.58</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.796600</v>
+        <v>-86.796599999999998</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>76239.617415</v>
+        <v>76239.617415000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>21.177672</v>
+        <v>21.177672000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1235.870000</v>
+        <v>1235.8699999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-90.105400</v>
+        <v>-90.105400000000003</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>76250.591896</v>
+        <v>76250.591895999998</v>
       </c>
       <c r="AP22" s="1">
-        <v>21.180720</v>
+        <v>21.180720000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1243.990000</v>
+        <v>1243.99</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.887000</v>
+        <v>-101.887</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>76261.364539</v>
+        <v>76261.364539000002</v>
       </c>
       <c r="AU22" s="1">
         <v>21.183712</v>
       </c>
       <c r="AV22" s="1">
-        <v>1254.080000</v>
+        <v>1254.08</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.142000</v>
+        <v>-121.142</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>76272.342463</v>
+        <v>76272.342462999994</v>
       </c>
       <c r="AZ22" s="1">
-        <v>21.186762</v>
+        <v>21.186762000000002</v>
       </c>
       <c r="BA22" s="1">
-        <v>1262.630000</v>
+        <v>1262.6300000000001</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.587000</v>
+        <v>-138.58699999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>76283.050590</v>
+        <v>76283.050589999999</v>
       </c>
       <c r="BE22" s="1">
         <v>21.189736</v>
       </c>
       <c r="BF22" s="1">
-        <v>1303.090000</v>
+        <v>1303.0899999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-220.154000</v>
+        <v>-220.154</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>76294.373290</v>
+        <v>76294.373290000003</v>
       </c>
       <c r="BJ22" s="1">
         <v>21.192881</v>
       </c>
       <c r="BK22" s="1">
-        <v>1373.170000</v>
+        <v>1373.17</v>
       </c>
       <c r="BL22" s="1">
-        <v>-355.644000</v>
+        <v>-355.64400000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>76304.924160</v>
+        <v>76304.924159999995</v>
       </c>
       <c r="BO22" s="1">
         <v>21.195812</v>
       </c>
       <c r="BP22" s="1">
-        <v>1488.020000</v>
+        <v>1488.02</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-575.951000</v>
+        <v>-575.95100000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>76315.758312</v>
+        <v>76315.758312000005</v>
       </c>
       <c r="BT22" s="1">
         <v>21.198822</v>
       </c>
       <c r="BU22" s="1">
-        <v>1620.500000</v>
+        <v>1620.5</v>
       </c>
       <c r="BV22" s="1">
-        <v>-824.408000</v>
+        <v>-824.40800000000002</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>76326.617684</v>
+        <v>76326.617683999997</v>
       </c>
       <c r="BY22" s="1">
-        <v>21.201838</v>
+        <v>21.201837999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1772.760000</v>
+        <v>1772.76</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1092.890000</v>
+        <v>-1092.8900000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>76339.851938</v>
+        <v>76339.851938000007</v>
       </c>
       <c r="CD22" s="1">
-        <v>21.205514</v>
+        <v>21.205514000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>2189.520000</v>
+        <v>2189.52</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1743.290000</v>
+        <v>-1743.29</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>76166.632135</v>
+        <v>76166.632135000007</v>
       </c>
       <c r="B23" s="1">
-        <v>21.157398</v>
+        <v>21.157398000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1149.500000</v>
+        <v>1149.5</v>
       </c>
       <c r="D23" s="1">
-        <v>-255.606000</v>
+        <v>-255.60599999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>76177.421081</v>
+        <v>76177.421080999993</v>
       </c>
       <c r="G23" s="1">
-        <v>21.160395</v>
+        <v>21.160395000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1171.000000</v>
+        <v>1171</v>
       </c>
       <c r="I23" s="1">
-        <v>-215.175000</v>
+        <v>-215.17500000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>76187.926348</v>
+        <v>76187.926347999994</v>
       </c>
       <c r="L23" s="1">
-        <v>21.163313</v>
+        <v>21.163312999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1199.700000</v>
+        <v>1199.7</v>
       </c>
       <c r="N23" s="1">
-        <v>-150.938000</v>
+        <v>-150.93799999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>76198.849245</v>
+        <v>76198.849245000005</v>
       </c>
       <c r="Q23" s="1">
-        <v>21.166347</v>
+        <v>21.166346999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>1207.900000</v>
+        <v>1207.9000000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-128.990000</v>
+        <v>-128.99</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>76209.629791</v>
+        <v>76209.629790999999</v>
       </c>
       <c r="V23" s="1">
         <v>21.169342</v>
       </c>
       <c r="W23" s="1">
-        <v>1215.420000</v>
+        <v>1215.42</v>
       </c>
       <c r="X23" s="1">
-        <v>-108.399000</v>
+        <v>-108.399</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>76219.894038</v>
+        <v>76219.894037999999</v>
       </c>
       <c r="AA23" s="1">
         <v>21.172193</v>
       </c>
       <c r="AB23" s="1">
-        <v>1223.710000</v>
+        <v>1223.71</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.370500</v>
+        <v>-91.370500000000007</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>76229.747028</v>
+        <v>76229.747027999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>21.174930</v>
+        <v>21.17493</v>
       </c>
       <c r="AG23" s="1">
-        <v>1228.550000</v>
+        <v>1228.55</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.846700</v>
+        <v>-86.846699999999998</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>76239.998343</v>
+        <v>76239.998342999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>21.177777</v>
+        <v>21.177776999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1235.860000</v>
+        <v>1235.8599999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-90.067100</v>
+        <v>-90.067099999999996</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>76250.952984</v>
+        <v>76250.952984000003</v>
       </c>
       <c r="AP23" s="1">
-        <v>21.180820</v>
+        <v>21.180820000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1243.980000</v>
+        <v>1243.98</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.936000</v>
+        <v>-101.93600000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>76261.726089</v>
+        <v>76261.726089000003</v>
       </c>
       <c r="AU23" s="1">
-        <v>21.183813</v>
+        <v>21.183813000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1254.120000</v>
+        <v>1254.1199999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.148000</v>
+        <v>-121.148</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>76272.703085</v>
+        <v>76272.703085000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>21.186862</v>
+        <v>21.186862000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1262.620000</v>
+        <v>1262.6199999999999</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.556000</v>
+        <v>-138.55600000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>76283.480622</v>
+        <v>76283.480622000003</v>
       </c>
       <c r="BE23" s="1">
-        <v>21.189856</v>
+        <v>21.189855999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1303.090000</v>
+        <v>1303.0899999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-220.143000</v>
+        <v>-220.143</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>76294.706574</v>
+        <v>76294.706573999996</v>
       </c>
       <c r="BJ23" s="1">
         <v>21.192974</v>
       </c>
       <c r="BK23" s="1">
-        <v>1373.170000</v>
+        <v>1373.17</v>
       </c>
       <c r="BL23" s="1">
-        <v>-355.713000</v>
+        <v>-355.71300000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>76305.306609</v>
+        <v>76305.306609000007</v>
       </c>
       <c r="BO23" s="1">
         <v>21.195919</v>
       </c>
       <c r="BP23" s="1">
-        <v>1487.980000</v>
+        <v>1487.98</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-575.936000</v>
+        <v>-575.93600000000004</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>76316.175410</v>
+        <v>76316.175409999996</v>
       </c>
       <c r="BT23" s="1">
-        <v>21.198938</v>
+        <v>21.198937999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>1620.610000</v>
+        <v>1620.61</v>
       </c>
       <c r="BV23" s="1">
-        <v>-824.458000</v>
+        <v>-824.45799999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>76327.064610</v>
+        <v>76327.064610000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>21.201962</v>
+        <v>21.201962000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1772.880000</v>
+        <v>1772.88</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1092.780000</v>
+        <v>-1092.78</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>76340.401507</v>
+        <v>76340.401507000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>21.205667</v>
+        <v>21.205666999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>2188.070000</v>
+        <v>2188.0700000000002</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1743.210000</v>
+        <v>-1743.21</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>76166.976032</v>
+        <v>76166.976032000006</v>
       </c>
       <c r="B24" s="1">
-        <v>21.157493</v>
+        <v>21.157492999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1149.420000</v>
+        <v>1149.42</v>
       </c>
       <c r="D24" s="1">
-        <v>-255.399000</v>
+        <v>-255.399</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>76177.765305</v>
+        <v>76177.765304999994</v>
       </c>
       <c r="G24" s="1">
-        <v>21.160490</v>
+        <v>21.160489999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1171.260000</v>
+        <v>1171.26</v>
       </c>
       <c r="I24" s="1">
-        <v>-214.533000</v>
+        <v>-214.53299999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>76188.273547</v>
+        <v>76188.273547000004</v>
       </c>
       <c r="L24" s="1">
-        <v>21.163409</v>
+        <v>21.163409000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1199.680000</v>
+        <v>1199.68</v>
       </c>
       <c r="N24" s="1">
-        <v>-150.799000</v>
+        <v>-150.79900000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>76199.518844</v>
+        <v>76199.518844000006</v>
       </c>
       <c r="Q24" s="1">
-        <v>21.166533</v>
+        <v>21.166533000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1207.930000</v>
+        <v>1207.93</v>
       </c>
       <c r="S24" s="1">
-        <v>-128.965000</v>
+        <v>-128.965</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>76210.005473</v>
+        <v>76210.005472999997</v>
       </c>
       <c r="V24" s="1">
-        <v>21.169446</v>
+        <v>21.169446000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1215.710000</v>
+        <v>1215.71</v>
       </c>
       <c r="X24" s="1">
-        <v>-108.331000</v>
+        <v>-108.331</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>76220.280880</v>
+        <v>76220.280880000006</v>
       </c>
       <c r="AA24" s="1">
-        <v>21.172300</v>
+        <v>21.1723</v>
       </c>
       <c r="AB24" s="1">
-        <v>1223.600000</v>
+        <v>1223.5999999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.311600</v>
+        <v>-91.311599999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>76230.092740</v>
+        <v>76230.092739999993</v>
       </c>
       <c r="AF24" s="1">
-        <v>21.175026</v>
+        <v>21.175025999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1228.540000</v>
+        <v>1228.54</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.874000</v>
+        <v>-86.873999999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>76240.346038</v>
+        <v>76240.346038000003</v>
       </c>
       <c r="AK24" s="1">
-        <v>21.177874</v>
+        <v>21.177873999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1235.890000</v>
+        <v>1235.8900000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-90.076800</v>
+        <v>-90.076800000000006</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>76251.312088</v>
+        <v>76251.312088000006</v>
       </c>
       <c r="AP24" s="1">
-        <v>21.180920</v>
+        <v>21.18092</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1244.000000</v>
+        <v>1244</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.925000</v>
+        <v>-101.925</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>76262.159595</v>
+        <v>76262.159595000005</v>
       </c>
       <c r="AU24" s="1">
         <v>21.183933</v>
       </c>
       <c r="AV24" s="1">
-        <v>1254.100000</v>
+        <v>1254.0999999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.134000</v>
+        <v>-121.134</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>76273.137051</v>
+        <v>76273.137050999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>21.186983</v>
+        <v>21.186983000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1262.650000</v>
+        <v>1262.6500000000001</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.542000</v>
+        <v>-138.542</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>76283.772306</v>
+        <v>76283.772305999999</v>
       </c>
       <c r="BE24" s="1">
         <v>21.189937</v>
       </c>
       <c r="BF24" s="1">
-        <v>1303.100000</v>
+        <v>1303.0999999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-220.137000</v>
+        <v>-220.137</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>76295.095475</v>
+        <v>76295.095474999995</v>
       </c>
       <c r="BJ24" s="1">
         <v>21.193082</v>
       </c>
       <c r="BK24" s="1">
-        <v>1373.170000</v>
+        <v>1373.17</v>
       </c>
       <c r="BL24" s="1">
-        <v>-355.696000</v>
+        <v>-355.69600000000003</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>76305.726688</v>
+        <v>76305.726687999995</v>
       </c>
       <c r="BO24" s="1">
-        <v>21.196035</v>
+        <v>21.196034999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1488.020000</v>
+        <v>1488.02</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-575.921000</v>
+        <v>-575.92100000000005</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>76316.586593</v>
       </c>
       <c r="BT24" s="1">
-        <v>21.199052</v>
+        <v>21.199051999999998</v>
       </c>
       <c r="BU24" s="1">
-        <v>1620.630000</v>
+        <v>1620.63</v>
       </c>
       <c r="BV24" s="1">
-        <v>-824.425000</v>
+        <v>-824.42499999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>76327.494115</v>
+        <v>76327.494114999994</v>
       </c>
       <c r="BY24" s="1">
-        <v>21.202082</v>
+        <v>21.202082000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1773.020000</v>
+        <v>1773.02</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1092.880000</v>
+        <v>-1092.8800000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>76340.929249</v>
+        <v>76340.929248999993</v>
       </c>
       <c r="CD24" s="1">
         <v>21.205814</v>
       </c>
       <c r="CE24" s="1">
-        <v>2190.130000</v>
+        <v>2190.13</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1743.010000</v>
+        <v>-1743.01</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>76167.316583</v>
+        <v>76167.316583000007</v>
       </c>
       <c r="B25" s="1">
-        <v>21.157588</v>
+        <v>21.157588000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1149.190000</v>
+        <v>1149.19</v>
       </c>
       <c r="D25" s="1">
-        <v>-255.637000</v>
+        <v>-255.637</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>76178.424503</v>
+        <v>76178.424503000002</v>
       </c>
       <c r="G25" s="1">
-        <v>21.160673</v>
+        <v>21.160672999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1171.320000</v>
+        <v>1171.32</v>
       </c>
       <c r="I25" s="1">
-        <v>-215.072000</v>
+        <v>-215.072</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>76188.931738</v>
+        <v>76188.931737999999</v>
       </c>
       <c r="L25" s="1">
-        <v>21.163592</v>
+        <v>21.163592000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1199.600000</v>
+        <v>1199.5999999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-150.835000</v>
+        <v>-150.83500000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>76199.894324</v>
+        <v>76199.894323999994</v>
       </c>
       <c r="Q25" s="1">
-        <v>21.166637</v>
+        <v>21.166637000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1207.930000</v>
+        <v>1207.93</v>
       </c>
       <c r="S25" s="1">
-        <v>-129.063000</v>
+        <v>-129.06299999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>76210.351470</v>
+        <v>76210.351469999994</v>
       </c>
       <c r="V25" s="1">
         <v>21.169542</v>
       </c>
       <c r="W25" s="1">
-        <v>1215.690000</v>
+        <v>1215.69</v>
       </c>
       <c r="X25" s="1">
-        <v>-108.402000</v>
+        <v>-108.402</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>76220.628112</v>
+        <v>76220.628112000006</v>
       </c>
       <c r="AA25" s="1">
         <v>21.172397</v>
       </c>
       <c r="AB25" s="1">
-        <v>1223.640000</v>
+        <v>1223.6400000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.309800</v>
+        <v>-91.309799999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>76230.440931</v>
+        <v>76230.440931000005</v>
       </c>
       <c r="AF25" s="1">
-        <v>21.175122</v>
+        <v>21.175122000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>1228.500000</v>
+        <v>1228.5</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.843700</v>
+        <v>-86.843699999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>76240.693734</v>
       </c>
       <c r="AK25" s="1">
-        <v>21.177970</v>
+        <v>21.177969999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>1235.870000</v>
+        <v>1235.8699999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-90.117200</v>
+        <v>-90.117199999999997</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>76251.742120</v>
+        <v>76251.742119999995</v>
       </c>
       <c r="AP25" s="1">
-        <v>21.181039</v>
+        <v>21.181038999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1243.980000</v>
+        <v>1243.98</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.889000</v>
+        <v>-101.889</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>76262.456730</v>
+        <v>76262.456730000005</v>
       </c>
       <c r="AU25" s="1">
         <v>21.184016</v>
       </c>
       <c r="AV25" s="1">
-        <v>1254.100000</v>
+        <v>1254.0999999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.142000</v>
+        <v>-121.142</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>76273.421258</v>
+        <v>76273.421258000002</v>
       </c>
       <c r="AZ25" s="1">
         <v>21.187061</v>
       </c>
       <c r="BA25" s="1">
-        <v>1262.620000</v>
+        <v>1262.6199999999999</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.563000</v>
+        <v>-138.56299999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>76284.133852</v>
+        <v>76284.133851999999</v>
       </c>
       <c r="BE25" s="1">
         <v>21.190037</v>
       </c>
       <c r="BF25" s="1">
-        <v>1303.110000</v>
+        <v>1303.1099999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-220.126000</v>
+        <v>-220.126</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>76295.471934</v>
+        <v>76295.471934000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>21.193187</v>
+        <v>21.193187000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1373.170000</v>
+        <v>1373.17</v>
       </c>
       <c r="BL25" s="1">
-        <v>-355.712000</v>
+        <v>-355.71199999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>76306.126463</v>
+        <v>76306.126462999993</v>
       </c>
       <c r="BO25" s="1">
-        <v>21.196146</v>
+        <v>21.196145999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1488.020000</v>
+        <v>1488.02</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-575.934000</v>
+        <v>-575.93399999999997</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>76317.018609</v>
+        <v>76317.018609000006</v>
       </c>
       <c r="BT25" s="1">
-        <v>21.199172</v>
+        <v>21.199172000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1620.660000</v>
+        <v>1620.66</v>
       </c>
       <c r="BV25" s="1">
-        <v>-824.379000</v>
+        <v>-824.37900000000002</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>76327.916243</v>
@@ -6617,287 +7033,288 @@
         <v>21.202199</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1772.880000</v>
+        <v>1772.88</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1092.940000</v>
+        <v>-1092.94</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>76341.449553</v>
+        <v>76341.449552999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>21.205958</v>
+        <v>21.205957999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>2189.880000</v>
+        <v>2189.88</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1741.450000</v>
+        <v>-1741.45</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>76167.982711</v>
+        <v>76167.982711000004</v>
       </c>
       <c r="B26" s="1">
-        <v>21.157773</v>
+        <v>21.157772999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1149.350000</v>
+        <v>1149.3499999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-255.495000</v>
+        <v>-255.495</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>76178.797975</v>
+        <v>76178.797974999994</v>
       </c>
       <c r="G26" s="1">
         <v>21.160777</v>
       </c>
       <c r="H26" s="1">
-        <v>1170.500000</v>
+        <v>1170.5</v>
       </c>
       <c r="I26" s="1">
-        <v>-214.155000</v>
+        <v>-214.155</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>76189.311177</v>
+        <v>76189.311176999996</v>
       </c>
       <c r="L26" s="1">
         <v>21.163698</v>
       </c>
       <c r="M26" s="1">
-        <v>1199.800000</v>
+        <v>1199.8</v>
       </c>
       <c r="N26" s="1">
-        <v>-150.797000</v>
+        <v>-150.797</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>76200.242507</v>
+        <v>76200.242507000003</v>
       </c>
       <c r="Q26" s="1">
-        <v>21.166734</v>
+        <v>21.166734000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>1207.980000</v>
+        <v>1207.98</v>
       </c>
       <c r="S26" s="1">
-        <v>-129.036000</v>
+        <v>-129.036</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>76210.696189</v>
+        <v>76210.696188999995</v>
       </c>
       <c r="V26" s="1">
-        <v>21.169638</v>
+        <v>21.169637999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1215.610000</v>
+        <v>1215.6099999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-108.331000</v>
+        <v>-108.331</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>76220.975808</v>
+        <v>76220.975808000003</v>
       </c>
       <c r="AA26" s="1">
-        <v>21.172493</v>
+        <v>21.172492999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1223.680000</v>
+        <v>1223.68</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.321400</v>
+        <v>-91.321399999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>76230.867987</v>
+        <v>76230.867987000005</v>
       </c>
       <c r="AF26" s="1">
         <v>21.175241</v>
       </c>
       <c r="AG26" s="1">
-        <v>1228.510000</v>
+        <v>1228.51</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.831600</v>
+        <v>-86.831599999999995</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>76241.133686</v>
+        <v>76241.133686000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>21.178093</v>
+        <v>21.178093000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1235.880000</v>
+        <v>1235.8800000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-90.088000</v>
+        <v>-90.087999999999994</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>76252.032311</v>
+        <v>76252.032311000003</v>
       </c>
       <c r="AP26" s="1">
-        <v>21.181120</v>
+        <v>21.18112</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1243.970000</v>
+        <v>1243.97</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.895000</v>
+        <v>-101.895</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>76262.821258</v>
+        <v>76262.821257999996</v>
       </c>
       <c r="AU26" s="1">
-        <v>21.184117</v>
+        <v>21.184117000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1254.110000</v>
+        <v>1254.1099999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.151000</v>
+        <v>-121.151</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>76273.779898</v>
+        <v>76273.779897999993</v>
       </c>
       <c r="AZ26" s="1">
         <v>21.187161</v>
       </c>
       <c r="BA26" s="1">
-        <v>1262.630000</v>
+        <v>1262.6300000000001</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.546000</v>
+        <v>-138.54599999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>76284.493985</v>
+        <v>76284.493984999994</v>
       </c>
       <c r="BE26" s="1">
         <v>21.190137</v>
       </c>
       <c r="BF26" s="1">
-        <v>1303.100000</v>
+        <v>1303.0999999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-220.135000</v>
+        <v>-220.13499999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>76296.223837</v>
+        <v>76296.223836999998</v>
       </c>
       <c r="BJ26" s="1">
         <v>21.193396</v>
       </c>
       <c r="BK26" s="1">
-        <v>1373.180000</v>
+        <v>1373.18</v>
       </c>
       <c r="BL26" s="1">
-        <v>-355.701000</v>
+        <v>-355.70100000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>76306.551536</v>
+        <v>76306.551535999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>21.196264</v>
+        <v>21.196263999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1488.060000</v>
+        <v>1488.06</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-575.890000</v>
+        <v>-575.89</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>76317.456112</v>
       </c>
       <c r="BT26" s="1">
-        <v>21.199293</v>
+        <v>21.199293000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1620.730000</v>
+        <v>1620.73</v>
       </c>
       <c r="BV26" s="1">
-        <v>-824.474000</v>
+        <v>-824.47400000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>76328.337314</v>
+        <v>76328.337314000004</v>
       </c>
       <c r="BY26" s="1">
         <v>21.202316</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1773.000000</v>
+        <v>1773</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1092.830000</v>
+        <v>-1092.83</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>76341.967905</v>
+        <v>76341.967904999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>21.206102</v>
+        <v>21.206102000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>2188.190000</v>
+        <v>2188.19</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1741.500000</v>
+        <v>-1741.5</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>